--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8C584C-3FAD-4042-90F9-9DA8C0B9992B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A094A3-BB2E-46C6-A574-97DABF0A558B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="25" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FolioAllegations" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="545">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1715,7 +1715,13 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
+    <t>testT4275</t>
+  </si>
+  <si>
     <t>testT4258</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2018,6 +2024,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -3678,7 +3685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -5840,10 +5847,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6804,65 +6811,189 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="69" customFormat="1">
-      <c r="A17" s="69" t="s">
+    <row r="17" spans="1:20" s="46" customFormat="1">
+      <c r="A17" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="B17" s="69">
-        <v>1</v>
-      </c>
-      <c r="C17" s="69">
-        <v>1</v>
-      </c>
-      <c r="D17" s="69" t="s">
+      <c r="B17" s="46">
+        <v>1</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="G17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="S17" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="T17" s="69" t="s">
+      <c r="G17" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="46" customFormat="1">
+      <c r="A18" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="B18" s="46">
+        <v>1</v>
+      </c>
+      <c r="C18" s="46">
+        <v>2</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="69" customFormat="1">
+      <c r="A19" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="69">
+        <v>1</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="T19" s="69" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6876,7 +7007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
@@ -13670,10 +13801,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13910,6 +14041,50 @@
       </c>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16" s="69" customFormat="1">
+      <c r="A6" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="69">
+        <v>1</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="70" t="s">
+        <v>544</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14499,12 +14674,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14725,19 +14901,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14762,11 +14939,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55774436-7DD6-4DCD-907E-B094213665F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{557D1395-27EA-4940-9CEA-9EA22E96B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="14" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="562">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>Caseload</t>
   </si>
   <si>
     <t>RELATED_FOLIOS_TAB</t>
@@ -3269,31 +3266,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="M1" s="52"/>
     </row>
@@ -3308,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="52" t="s">
@@ -3338,10 +3335,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>201</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>202</v>
       </c>
       <c r="G3" s="50" t="s">
         <v>19</v>
@@ -3356,7 +3353,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L3" s="50" t="s">
         <v>59</v>
@@ -3374,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>30</v>
@@ -3395,7 +3392,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>30</v>
@@ -3413,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>30</v>
@@ -3434,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="50" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L5" s="50" t="s">
         <v>30</v>
@@ -3452,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3494,10 +3491,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="47" t="s">
         <v>201</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>202</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>19</v>
@@ -3512,7 +3509,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3555,37 +3552,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>210</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="52" t="s">
         <v>213</v>
-      </c>
-      <c r="N1" s="52" t="s">
-        <v>214</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -3601,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3616,16 +3613,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
@@ -3643,13 +3640,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3658,16 +3655,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
@@ -3676,7 +3673,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4" s="52">
         <v>1</v>
@@ -3685,13 +3682,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>19</v>
@@ -3700,16 +3697,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="J4" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3732,10 +3729,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>19</v>
@@ -3744,10 +3741,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K5" s="52" t="s">
         <v>28</v>
@@ -3801,43 +3798,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3851,37 +3848,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -3909,19 +3906,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -3933,7 +3930,7 @@
         <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4392,43 +4389,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>249</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>250</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4437,43 +4434,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>256</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>261</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>262</v>
       </c>
       <c r="AF1" s="52"/>
       <c r="AG1" s="52"/>
@@ -4490,22 +4487,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>149</v>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" s="52">
         <v>1</v>
@@ -4546,27 +4543,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="52" t="s">
         <v>265</v>
-      </c>
-      <c r="N3" s="52" t="s">
-        <v>266</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -4603,7 +4600,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4615,16 +4612,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" s="46" t="s">
+      <c r="L4" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4640,41 +4637,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="U4" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="V4" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>272</v>
-      </c>
-      <c r="W4" s="46" t="s">
-        <v>273</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4695,7 +4692,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4722,13 +4719,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4737,12 +4734,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4817,7 +4814,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V6" s="52" t="s">
         <v>28</v>
@@ -4919,109 +4916,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="43" t="s">
         <v>287</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>308</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>309</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5068,19 +5065,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O2" s="50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P2" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R2" s="50" t="s">
         <v>311</v>
-      </c>
-      <c r="R2" s="50" t="s">
-        <v>312</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>19</v>
@@ -5113,10 +5110,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD2" s="50" t="s">
         <v>313</v>
-      </c>
-      <c r="AD2" s="50" t="s">
-        <v>314</v>
       </c>
       <c r="AE2" s="50" t="s">
         <v>30</v>
@@ -5146,7 +5143,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5190,19 +5187,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="O3" s="50" t="s">
         <v>316</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>317</v>
       </c>
       <c r="P3" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q3" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R3" s="50" t="s">
         <v>311</v>
-      </c>
-      <c r="R3" s="50" t="s">
-        <v>312</v>
       </c>
       <c r="S3" s="50" t="s">
         <v>19</v>
@@ -5312,49 +5309,49 @@
         <v>28</v>
       </c>
       <c r="N4" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O4" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="50" t="s">
         <v>318</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>319</v>
       </c>
       <c r="AC4" s="50" t="s">
         <v>30</v>
@@ -5476,7 +5473,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AC5" s="50" t="s">
         <v>30</v>
@@ -5598,7 +5595,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AC6" s="50" t="s">
         <v>30</v>
@@ -5720,7 +5717,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AC7" s="50" t="s">
         <v>30</v>
@@ -5842,7 +5839,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC8" s="50" t="s">
         <v>30</v>
@@ -5922,20 +5919,20 @@
         <v>19</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P9" s="50" t="s">
         <v>148</v>
       </c>
       <c r="Q9" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="R9" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="R9" s="63" t="s">
-        <v>312</v>
-      </c>
       <c r="S9" s="50" t="s">
         <v>19</v>
       </c>
@@ -5964,7 +5961,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AC9" s="50" t="s">
         <v>30</v>
@@ -5997,7 +5994,7 @@
         <v>149</v>
       </c>
       <c r="AM9" s="50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AN9" s="50" t="s">
         <v>30</v>
@@ -6005,49 +6002,49 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="52">
+        <v>1</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="B10" s="52">
-        <v>1</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="52" t="s">
+      <c r="O10" s="52" t="s">
         <v>326</v>
-      </c>
-      <c r="O10" s="52" t="s">
-        <v>327</v>
       </c>
       <c r="P10" s="52" t="s">
         <v>148</v>
@@ -6056,7 +6053,7 @@
         <v>28</v>
       </c>
       <c r="R10" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S10" s="52" t="s">
         <v>19</v>
@@ -6086,7 +6083,7 @@
         <v>151</v>
       </c>
       <c r="AB10" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AC10" s="52"/>
       <c r="AD10" s="52"/>
@@ -6121,7 +6118,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B11" s="52">
         <v>1</v>
@@ -6160,10 +6157,10 @@
         <v>19</v>
       </c>
       <c r="N11" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="O11" s="52" t="s">
         <v>328</v>
-      </c>
-      <c r="O11" s="52" t="s">
-        <v>329</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>148</v>
@@ -6172,7 +6169,7 @@
         <v>28</v>
       </c>
       <c r="R11" s="55" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S11" s="52" t="s">
         <v>19</v>
@@ -6218,7 +6215,7 @@
     </row>
     <row r="12" spans="1:40" s="52" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6257,10 +6254,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>330</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>331</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>148</v>
@@ -6269,7 +6266,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6340,7 +6337,7 @@
     </row>
     <row r="13" spans="1:40" s="52" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6379,10 +6376,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>332</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>333</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>148</v>
@@ -6391,7 +6388,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6462,79 +6459,79 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6548,49 +6545,49 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="69" t="s">
         <v>341</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>342</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>148</v>
@@ -6599,7 +6596,7 @@
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6670,7 +6667,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6709,10 +6706,10 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>148</v>
@@ -6721,7 +6718,7 @@
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6792,7 +6789,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6831,10 +6828,10 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>148</v>
@@ -6843,7 +6840,7 @@
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -6937,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -6946,12 +6943,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6963,7 +6960,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -6974,7 +6971,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -6986,7 +6983,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -6997,7 +6994,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7009,7 +7006,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7020,7 +7017,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7032,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7082,37 +7079,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="65" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="65" t="s">
         <v>359</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>360</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7149,7 +7146,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7204,7 +7201,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B4" s="52">
         <v>1</v>
@@ -7243,7 +7240,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7296,13 +7293,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>364</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7313,7 +7310,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7347,7 +7344,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7367,7 +7364,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7387,7 +7384,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7407,7 +7404,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7447,7 +7444,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7467,7 +7464,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7487,7 +7484,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7538,55 +7535,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7606,7 +7603,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>151</v>
@@ -7642,7 +7639,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7704,7 +7701,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7766,7 +7763,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7786,7 +7783,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7824,55 +7821,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>391</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>392</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>393</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>385</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>401</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7886,13 +7883,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>404</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -7948,13 +7945,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8013,10 +8010,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8037,28 +8034,28 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>407</v>
-      </c>
       <c r="O4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8179,7 +8176,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8196,13 +8193,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>404</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -8223,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8258,13 +8255,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -8285,7 +8282,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8311,7 +8308,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="52">
         <v>1</v>
@@ -8320,13 +8317,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -8347,7 +8344,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8373,7 +8370,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="52">
         <v>1</v>
@@ -8382,13 +8379,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -8409,7 +8406,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8433,9 +8430,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="56" customFormat="1">
+    <row r="11" spans="1:20" s="56" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8444,13 +8441,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8497,7 +8494,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8506,13 +8503,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8559,7 +8556,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8621,7 +8618,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B14" s="52">
         <v>1</v>
@@ -8630,13 +8627,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -8683,7 +8680,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="52">
         <v>1</v>
@@ -8692,13 +8689,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -8745,7 +8742,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" s="52">
         <v>1</v>
@@ -8754,13 +8751,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -8807,7 +8804,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8816,13 +8813,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8869,7 +8866,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8878,13 +8875,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -8931,7 +8928,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -8940,13 +8937,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -8993,7 +8990,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9002,13 +8999,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9029,7 +9026,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9055,7 +9052,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9064,13 +9061,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9091,7 +9088,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9117,7 +9114,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9126,13 +9123,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9153,7 +9150,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9177,65 +9174,65 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14" customHeight="1">
-      <c r="A23" t="s">
-        <v>562</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" t="s">
-        <v>404</v>
-      </c>
-      <c r="F23" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" t="s">
+    <row r="23" spans="1:20" s="56" customFormat="1" ht="14" customHeight="1">
+      <c r="A23" s="56" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="56">
+        <v>1</v>
+      </c>
+      <c r="C23" s="56">
+        <v>1</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>403</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="56" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9981,31 +9978,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>422</v>
       </c>
-      <c r="K1" s="52" t="s">
-        <v>423</v>
-      </c>
       <c r="L1" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="52" t="s">
         <v>195</v>
-      </c>
-      <c r="M1" s="52" t="s">
-        <v>196</v>
       </c>
       <c r="N1" s="52" t="s">
         <v>13</v>
@@ -10022,31 +10019,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>426</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>428</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>429</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>430</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10090,19 +10087,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10125,7 +10122,7 @@
         <v>148</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H2" s="52" t="s">
         <v>19</v>
@@ -10182,76 +10179,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10283,10 +10280,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>59</v>
@@ -10372,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>59</v>
@@ -10464,10 +10461,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -10561,10 +10558,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="52" t="s">
         <v>28</v>
@@ -11036,94 +11033,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11137,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -11238,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -11829,37 +11826,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>485</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>486</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>491</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>492</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
@@ -11903,7 +11900,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -11923,7 +11920,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>19</v>
@@ -11950,7 +11947,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -11970,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12009,7 +12006,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>19</v>
@@ -12134,103 +12131,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>516</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12239,7 +12236,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12284,36 +12281,36 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
       <c r="U2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>520</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>521</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12328,22 +12325,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -12373,34 +12370,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12412,7 +12409,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -12458,28 +12455,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12490,7 +12487,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12499,18 +12496,18 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>535</v>
-      </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
       </c>
@@ -12524,7 +12521,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -12556,87 +12553,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>537</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>538</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC1" s="52" t="s">
         <v>553</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12645,75 +12642,75 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="52" t="s">
         <v>557</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="U2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="V2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>558</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>559</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>560</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12722,7 +12719,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -12761,16 +12758,16 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -15043,8 +15040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15119,7 +15116,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="50" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="J2" s="50" t="s">
         <v>28</v>
@@ -15151,7 +15148,7 @@
         <v>168</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>19</v>
@@ -15190,7 +15187,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -15250,31 +15247,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>178</v>
-      </c>
-      <c r="L1" s="52" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15288,29 +15285,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="52"/>
       <c r="F2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>180</v>
-      </c>
-      <c r="G2" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>181</v>
       </c>
       <c r="I2" s="52" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K2" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L2" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1">
@@ -15324,21 +15321,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I3" s="52" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
@@ -15369,31 +15366,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -15407,16 +15404,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -15429,7 +15426,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -15830,25 +15827,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16065,25 +16043,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16102,6 +16081,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557D1395-27EA-4940-9CEA-9EA22E96B252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7098588C-B5DA-48D4-91F5-A1466464AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="562">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>Placement</t>
-  </si>
-  <si>
-    <t>PlacementPreservationStrategy</t>
   </si>
   <si>
     <t>Placement - Runaway or Child Abducted</t>
@@ -1772,6 +1769,9 @@
   </si>
   <si>
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
+  </si>
+  <si>
+    <t>Placement Preservation Strategy</t>
   </si>
   <si>
     <t>testT4258</t>
@@ -4855,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4897,7 +4897,7 @@
     <col min="36" max="36" width="19.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="21.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.81640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.81640625" style="52" customWidth="1"/>
+    <col min="39" max="39" width="17.7265625" style="52" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="110.453125" style="39" bestFit="1" customWidth="1"/>
     <col min="41" max="16384" width="8.81640625" style="39"/>
   </cols>
@@ -6160,7 +6160,7 @@
         <v>327</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>328</v>
+        <v>560</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>148</v>
@@ -6196,21 +6196,44 @@
         <v>28</v>
       </c>
       <c r="AA11" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB11" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="AB11" s="55" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL11" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM11" s="50" t="s">
+        <v>149</v>
+      </c>
       <c r="AN11" s="52"/>
     </row>
     <row r="12" spans="1:40" s="52" customFormat="1">
@@ -6254,10 +6277,10 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>329</v>
-      </c>
-      <c r="O12" s="46" t="s">
-        <v>330</v>
       </c>
       <c r="P12" s="46" t="s">
         <v>148</v>
@@ -6266,7 +6289,7 @@
         <v>28</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6376,10 +6399,10 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>331</v>
-      </c>
-      <c r="O13" s="46" t="s">
-        <v>332</v>
       </c>
       <c r="P13" s="46" t="s">
         <v>148</v>
@@ -6388,7 +6411,7 @@
         <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6459,7 +6482,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6501,10 +6524,10 @@
         <v>327</v>
       </c>
       <c r="O14" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
@@ -6519,19 +6542,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>327</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6545,49 +6568,49 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="69" t="s">
         <v>340</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>341</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>148</v>
@@ -6667,7 +6690,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6709,7 +6732,7 @@
         <v>327</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>148</v>
@@ -6789,7 +6812,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6831,7 +6854,7 @@
         <v>327</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>148</v>
@@ -6922,6 +6945,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" s="52" customFormat="1">
       <c r="A1" s="40" t="s">
@@ -6934,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -6943,12 +6969,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6960,7 +6986,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -6971,7 +6997,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -6983,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -6994,7 +7020,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7006,7 +7032,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7017,7 +7043,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7029,7 +7055,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7079,37 +7105,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>358</v>
       </c>
       <c r="M1" s="65" t="s">
         <v>212</v>
       </c>
       <c r="N1" s="65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7146,7 +7172,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7240,7 +7266,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7293,13 +7319,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>363</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7310,7 +7336,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7324,7 +7350,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7344,7 +7370,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7364,7 +7390,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7384,7 +7410,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7404,7 +7430,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7424,7 +7450,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7444,7 +7470,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7464,7 +7490,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7484,7 +7510,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7535,55 +7561,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>385</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7603,7 +7629,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>151</v>
@@ -7639,7 +7665,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7701,7 +7727,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7763,7 +7789,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7782,8 +7808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7821,55 +7847,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>391</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>392</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>384</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>400</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7883,13 +7909,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>403</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -7945,13 +7971,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8010,10 +8036,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8034,28 +8060,28 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>405</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>406</v>
-      </c>
       <c r="O4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8176,7 +8202,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8193,13 +8219,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>403</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -8220,7 +8246,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8255,13 +8281,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -8282,7 +8308,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8317,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -8344,7 +8370,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8379,13 +8405,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -8406,7 +8432,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8430,9 +8456,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="56" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="1:20" s="56" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8441,13 +8467,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8494,7 +8520,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8503,13 +8529,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8556,7 +8582,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8627,13 +8653,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -8689,13 +8715,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -8751,13 +8777,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -8804,7 +8830,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8813,13 +8839,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8866,7 +8892,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8875,13 +8901,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -8928,7 +8954,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -8937,13 +8963,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -8990,7 +9016,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -8999,13 +9025,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9026,7 +9052,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9052,7 +9078,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9061,13 +9087,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9088,7 +9114,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9114,7 +9140,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9123,13 +9149,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9150,7 +9176,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9174,65 +9200,65 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="56" customFormat="1" ht="14" customHeight="1">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:20" s="31" customFormat="1">
+      <c r="A23" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="B23" s="56">
-        <v>1</v>
-      </c>
-      <c r="C23" s="56">
-        <v>1</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>409</v>
-      </c>
-      <c r="E23" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="56" t="s">
+      <c r="B23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="31">
+        <v>1</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T23" s="31" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9978,25 +10004,25 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>421</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>422</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>194</v>
@@ -10019,31 +10045,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>423</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10090,13 +10116,13 @@
         <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>176</v>
@@ -10179,76 +10205,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I1" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10280,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>238</v>
@@ -10369,7 +10395,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>238</v>
@@ -10461,7 +10487,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>238</v>
@@ -10558,7 +10584,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>238</v>
@@ -11033,94 +11059,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11826,37 +11852,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>484</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>485</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>485</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>490</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>491</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
@@ -11900,7 +11926,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -11947,7 +11973,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -12131,103 +12157,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>515</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12236,7 +12262,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12281,13 +12307,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>517</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
@@ -12298,10 +12324,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>216</v>
@@ -12310,7 +12336,7 @@
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12370,34 +12396,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>525</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12455,28 +12481,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>532</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12487,7 +12513,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12503,10 +12529,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>533</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>534</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12553,87 +12579,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>536</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>537</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>543</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>544</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>552</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12669,16 +12695,16 @@
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>555</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -12693,24 +12719,24 @@
         <v>179</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>558</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>559</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12761,7 +12787,7 @@
         <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7098588C-B5DA-48D4-91F5-A1466464AFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1877CD3A-F3AC-423F-941A-558FBA3C86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="564">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1775,6 +1775,12 @@
   </si>
   <si>
     <t>testT4258</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
   </si>
 </sst>
 </file>
@@ -3520,10 +3526,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3531,12 +3537,14 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
     <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3760,6 +3768,50 @@
       </c>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:16" s="31" customFormat="1">
+      <c r="A6" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="31">
+        <v>1</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,7 +4908,7 @@
   <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -6568,7 +6620,7 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6690,7 +6742,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6812,7 +6864,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6942,10 +6994,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FCA55B-CD14-4ADB-91DF-0E908AE3D902}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="5" max="5" width="116.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6974,7 +7029,7 @@
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -6997,7 +7052,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7020,7 +7075,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7043,7 +7098,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7808,13 +7863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
@@ -8954,7 +9009,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>338</v>
+        <v>562</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -15853,6 +15908,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16069,26 +16143,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16107,24 +16180,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1877CD3A-F3AC-423F-941A-558FBA3C86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F315C9-3555-495A-8D58-2ADEE763BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3529,7 +3529,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>179</v>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F315C9-3555-495A-8D58-2ADEE763BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB35663-D661-4BDE-A5BA-37D23CA4A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB35663-D661-4BDE-A5BA-37D23CA4A251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8327FD99-50F0-416F-9433-0D197C17E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2085,6 +2085,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -3529,7 +3531,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3537,14 +3539,12 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
     <col min="6" max="6" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3769,49 +3769,51 @@
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
     </row>
-    <row r="6" spans="1:16" s="31" customFormat="1">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:16">
+      <c r="A6" s="71" t="s">
         <v>561</v>
       </c>
-      <c r="B6" s="31">
-        <v>1</v>
-      </c>
-      <c r="C6" s="31">
-        <v>1</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="31" t="s">
+      <c r="B6" s="71">
+        <v>1</v>
+      </c>
+      <c r="C6" s="71">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="47" t="s">
+      <c r="G6" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="47" t="s">
+      <c r="I6" s="72" t="s">
         <v>563</v>
       </c>
-      <c r="J6" s="47" t="s">
+      <c r="J6" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>28</v>
-      </c>
+      <c r="K6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6995,7 +6997,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15908,25 +15910,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -16143,25 +16126,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16180,6 +16164,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8327FD99-50F0-416F-9433-0D197C17E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{300E777E-8B28-4C08-B0DB-73AC734940CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -1064,9 +1064,6 @@
     <t>Person Photo</t>
   </si>
   <si>
-    <t>testimage.png</t>
-  </si>
-  <si>
     <t>testT4274</t>
   </si>
   <si>
@@ -1781,6 +1778,9 @@
   </si>
   <si>
     <t>Placement Worker</t>
+  </si>
+  <si>
+    <t>testimage.jpeg</t>
   </si>
 </sst>
 </file>
@@ -3530,8 +3530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083A157-C67F-458F-A42E-BC1D5FB3C768}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P6"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="71" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B6" s="71">
         <v>1</v>
@@ -3786,7 +3786,7 @@
         <v>179</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G6" s="71" t="s">
         <v>19</v>
@@ -3795,7 +3795,7 @@
         <v>59</v>
       </c>
       <c r="I6" s="72" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J6" s="72" t="s">
         <v>179</v>
@@ -4909,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -6104,7 +6104,7 @@
         <v>148</v>
       </c>
       <c r="Q10" s="52" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="R10" s="55" t="s">
         <v>311</v>
@@ -6214,13 +6214,13 @@
         <v>327</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="P11" s="52" t="s">
         <v>148</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>28</v>
+        <v>310</v>
       </c>
       <c r="R11" s="55" t="s">
         <v>311</v>
@@ -6339,11 +6339,11 @@
       <c r="P12" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="Q12" s="46" t="s">
-        <v>28</v>
+      <c r="Q12" s="52" t="s">
+        <v>310</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>332</v>
+        <v>563</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6461,11 +6461,11 @@
       <c r="P13" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="Q13" s="46" t="s">
-        <v>28</v>
+      <c r="Q13" s="52" t="s">
+        <v>310</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>332</v>
+        <v>563</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
@@ -6578,10 +6578,10 @@
         <v>327</v>
       </c>
       <c r="O14" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>28</v>
@@ -6596,19 +6596,19 @@
         <v>28</v>
       </c>
       <c r="U14" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>327</v>
       </c>
       <c r="W14" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="Y14" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="15" spans="1:40" s="52" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B15" s="46">
         <v>1</v>
@@ -6661,10 +6661,10 @@
         <v>19</v>
       </c>
       <c r="N15" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="O15" s="69" t="s">
         <v>339</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>340</v>
       </c>
       <c r="P15" s="46" t="s">
         <v>148</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="16" spans="1:40" s="52" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>327</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P16" s="46" t="s">
         <v>148</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="17" spans="1:40" s="52" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6908,7 +6908,7 @@
         <v>327</v>
       </c>
       <c r="O17" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P17" s="46" t="s">
         <v>148</v>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -7026,12 +7026,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7043,7 +7043,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7066,7 +7066,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7077,7 +7077,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7089,7 +7089,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7100,7 +7100,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7112,7 +7112,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7162,37 +7162,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F1" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="H1" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>357</v>
       </c>
       <c r="M1" s="65" t="s">
         <v>212</v>
       </c>
       <c r="N1" s="65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O1" s="52"/>
       <c r="P1" s="52"/>
@@ -7229,7 +7229,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7323,7 +7323,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
@@ -7376,13 +7376,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="52" t="s">
         <v>362</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7393,7 +7393,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B5" s="52">
         <v>1</v>
@@ -7467,7 +7467,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7507,7 +7507,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7527,7 +7527,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7618,55 +7618,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7686,7 +7686,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>151</v>
@@ -7722,7 +7722,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S2" s="52" t="s">
         <v>19</v>
@@ -7784,7 +7784,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7846,7 +7846,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7904,55 +7904,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>390</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>391</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>383</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>394</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>399</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="16" customFormat="1">
@@ -7966,13 +7966,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>402</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8028,13 +8028,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8093,10 +8093,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>28</v>
@@ -8117,28 +8117,28 @@
         <v>19</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="N4" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>405</v>
-      </c>
       <c r="O4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -8259,7 +8259,7 @@
         <v>28</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>28</v>
@@ -8276,13 +8276,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>402</v>
-      </c>
       <c r="F7" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G7" s="52" t="s">
         <v>59</v>
@@ -8303,7 +8303,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>28</v>
@@ -8338,13 +8338,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G8" s="52" t="s">
         <v>59</v>
@@ -8365,7 +8365,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N8" s="52" t="s">
         <v>28</v>
@@ -8400,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G9" s="52" t="s">
         <v>59</v>
@@ -8427,7 +8427,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N9" s="52" t="s">
         <v>28</v>
@@ -8462,13 +8462,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>59</v>
@@ -8489,7 +8489,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>28</v>
@@ -8515,7 +8515,7 @@
     </row>
     <row r="11" spans="1:20" s="56" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B11" s="56">
         <v>1</v>
@@ -8524,13 +8524,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E11" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>28</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="12" spans="1:20" s="56" customFormat="1">
       <c r="A12" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B12" s="56">
         <v>1</v>
@@ -8586,13 +8586,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E12" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>28</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B13" s="52">
         <v>1</v>
@@ -8710,13 +8710,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F14" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G14" s="52" t="s">
         <v>59</v>
@@ -8772,13 +8772,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>59</v>
@@ -8834,13 +8834,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G16" s="52" t="s">
         <v>59</v>
@@ -8887,7 +8887,7 @@
     </row>
     <row r="17" spans="1:20" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -8896,13 +8896,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="18" spans="1:20" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -8958,13 +8958,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="19" spans="1:20" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9020,13 +9020,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9082,13 +9082,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9109,7 +9109,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9144,13 +9144,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9171,7 +9171,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9197,7 +9197,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9206,13 +9206,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9233,7 +9233,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="23" spans="1:20" s="31" customFormat="1">
       <c r="A23" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B23" s="31">
         <v>1</v>
@@ -9268,13 +9268,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>28</v>
@@ -10061,25 +10061,25 @@
         <v>160</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F1" s="52" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="I1" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="J1" s="52" t="s">
         <v>419</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>420</v>
-      </c>
-      <c r="K1" s="52" t="s">
-        <v>421</v>
       </c>
       <c r="L1" s="52" t="s">
         <v>194</v>
@@ -10102,31 +10102,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>422</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>423</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>427</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>428</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>19</v>
@@ -10173,13 +10173,13 @@
         <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>176</v>
@@ -10262,76 +10262,76 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I1" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="L1" s="52" t="s">
         <v>435</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="M1" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="N1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="O1" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="P1" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="Q1" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AB1" s="52"/>
       <c r="AC1" s="52"/>
@@ -10363,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E2" s="52" t="s">
         <v>238</v>
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>238</v>
@@ -10544,7 +10544,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>238</v>
@@ -10641,7 +10641,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>238</v>
@@ -11116,94 +11116,94 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="R1" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -11909,37 +11909,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F1" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>483</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>484</v>
       </c>
       <c r="H1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>489</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>490</v>
       </c>
       <c r="O1" s="41" t="s">
         <v>96</v>
@@ -11983,7 +11983,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N2" s="57" t="s">
         <v>149</v>
@@ -12030,7 +12030,7 @@
         <v>28</v>
       </c>
       <c r="M3" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N3" s="57" t="s">
         <v>30</v>
@@ -12214,103 +12214,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>514</v>
-      </c>
       <c r="AI1" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="AK1" s="5" t="s">
         <v>13</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12364,13 +12364,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="S2" s="49"/>
       <c r="T2" s="49"/>
@@ -12381,10 +12381,10 @@
         <v>28</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Y2" s="5" t="s">
         <v>216</v>
@@ -12393,7 +12393,7 @@
         <v>28</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AB2" s="5">
         <v>4</v>
@@ -12453,34 +12453,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12538,28 +12538,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>117</v>
@@ -12570,7 +12570,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12586,10 +12586,10 @@
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>28</v>
@@ -12636,87 +12636,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>536</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>66</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K1" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>543</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>153</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>152</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AC1" s="52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -12752,16 +12752,16 @@
         <v>149</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>553</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>554</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>28</v>
@@ -12776,24 +12776,24 @@
         <v>179</v>
       </c>
       <c r="W2" s="52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="X2" s="52" t="s">
         <v>149</v>
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA2" s="52" t="s">
         <v>557</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>558</v>
       </c>
       <c r="AB2" s="52"/>
       <c r="AC2" s="52"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -12844,7 +12844,7 @@
         <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S3" s="5" t="s">
         <v>28</v>
@@ -16127,15 +16127,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -16143,6 +16134,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16165,14 +16165,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16182,6 +16174,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D94380D-3887-4B71-BE9B-8B9F35CADB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1B5F0E-F5B4-472A-A82B-143ECFC3D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3208" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="579">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1817,6 +1817,15 @@
   </si>
   <si>
     <t>America</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
+  </si>
+  <si>
+    <t>Reason To Know</t>
   </si>
 </sst>
 </file>
@@ -7917,10 +7926,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T7" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7952,10 +7961,10 @@
     <col min="25" max="25" width="17" style="51" customWidth="1"/>
     <col min="26" max="26" width="25.81640625" style="51" customWidth="1"/>
     <col min="27" max="27" width="19.6328125" customWidth="1"/>
-    <col min="28" max="28" width="24.26953125" customWidth="1"/>
+    <col min="28" max="28" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -8037,8 +8046,11 @@
       <c r="AA1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" s="16" customFormat="1">
+      <c r="AB1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="16" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
@@ -8103,7 +8115,7 @@
       <c r="Y2" s="51"/>
       <c r="Z2" s="51"/>
     </row>
-    <row r="3" spans="1:27" s="16" customFormat="1">
+    <row r="3" spans="1:28" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
         <v>27</v>
       </c>
@@ -8185,8 +8197,11 @@
       <c r="AA3" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="51" t="s">
         <v>35</v>
       </c>
@@ -8268,8 +8283,11 @@
       <c r="AA4" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="51" t="s">
         <v>111</v>
       </c>
@@ -8351,8 +8369,11 @@
       <c r="AA5" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="51" t="s">
         <v>38</v>
       </c>
@@ -8434,8 +8455,11 @@
       <c r="AA6" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="39" customFormat="1">
+      <c r="AB6" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="39" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>38</v>
       </c>
@@ -8517,8 +8541,11 @@
       <c r="AA7" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="39" customFormat="1">
+      <c r="AB7" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" s="39" customFormat="1">
       <c r="A8" s="51" t="s">
         <v>38</v>
       </c>
@@ -8600,8 +8627,11 @@
       <c r="AA8" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="51" t="s">
         <v>328</v>
       </c>
@@ -8683,8 +8713,11 @@
       <c r="AA9" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="51" t="s">
         <v>328</v>
       </c>
@@ -8766,8 +8799,11 @@
       <c r="AA10" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="55" customFormat="1">
+      <c r="AB10" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
         <v>415</v>
       </c>
@@ -8849,8 +8885,11 @@
       <c r="AA11" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="55" customFormat="1">
+      <c r="AB11" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
         <v>415</v>
       </c>
@@ -8932,8 +8971,11 @@
       <c r="AA12" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="51" t="s">
         <v>417</v>
       </c>
@@ -9015,8 +9057,11 @@
       <c r="AA13" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="51" t="s">
         <v>328</v>
       </c>
@@ -9098,8 +9143,11 @@
       <c r="AA14" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="51" t="s">
         <v>328</v>
       </c>
@@ -9181,8 +9229,11 @@
       <c r="AA15" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="51" t="s">
         <v>328</v>
       </c>
@@ -9264,8 +9315,11 @@
       <c r="AA16" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" s="46" customFormat="1">
+      <c r="AB16" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
         <v>419</v>
       </c>
@@ -9347,8 +9401,11 @@
       <c r="AA17" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" s="46" customFormat="1">
+      <c r="AB17" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
         <v>419</v>
       </c>
@@ -9430,8 +9487,11 @@
       <c r="AA18" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" s="46" customFormat="1">
+      <c r="AB18" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
         <v>343</v>
       </c>
@@ -9513,8 +9573,11 @@
       <c r="AA19" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
         <v>338</v>
       </c>
@@ -9596,8 +9659,11 @@
       <c r="AA20" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
         <v>338</v>
       </c>
@@ -9679,8 +9745,11 @@
       <c r="AA21" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="7" t="s">
         <v>421</v>
       </c>
@@ -9762,8 +9831,11 @@
       <c r="AA22" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" s="31" customFormat="1">
+      <c r="AB22" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
         <v>223</v>
       </c>
@@ -9845,8 +9917,11 @@
       <c r="AA23" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" s="70" customFormat="1">
+      <c r="AB23" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="70" customFormat="1">
       <c r="A24" s="70" t="s">
         <v>564</v>
       </c>
@@ -9928,8 +10003,11 @@
       <c r="AA24" s="51" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" s="70" customFormat="1">
+      <c r="AB24" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="70" customFormat="1">
       <c r="A25" s="70" t="s">
         <v>223</v>
       </c>
@@ -10006,10 +10084,13 @@
         <v>575</v>
       </c>
       <c r="Z25" s="70" t="s">
-        <v>59</v>
+        <v>576</v>
       </c>
       <c r="AA25" s="70" t="s">
         <v>19</v>
+      </c>
+      <c r="AB25" s="70" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/Folio.xlsx
+++ b/Folio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1B5F0E-F5B4-472A-A82B-143ECFC3D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC30048F-EF26-4FE0-A1C1-2E81DCC335FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allegations" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="576">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -359,162 +359,162 @@
     <t>TOAST_MSG_VERIFY</t>
   </si>
   <si>
+    <t>Consult with Attorney</t>
+  </si>
+  <si>
+    <t>Child Removed</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>personName2</t>
+  </si>
+  <si>
+    <t>personName1</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Court</t>
+  </si>
+  <si>
+    <t>randomText</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,folioPersonName2</t>
+  </si>
+  <si>
+    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
+  </si>
+  <si>
+    <t>personName2,personName4</t>
+  </si>
+  <si>
+    <t>personName1,personName2,personName3,personName4</t>
+  </si>
+  <si>
+    <t>testT4148</t>
+  </si>
+  <si>
+    <t>TRIBAL_NEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACT_START_DATE_TIME</t>
+  </si>
+  <si>
+    <t>CONTACT_METHOD</t>
+  </si>
+  <si>
+    <t>STAFF_PERSON</t>
+  </si>
+  <si>
+    <t>OTHER_STAFF_PRESENT</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE</t>
+  </si>
+  <si>
+    <t>CONTINUED_ICWA_INQUIRY</t>
+  </si>
+  <si>
     <t>DOCUMENTATION_STATUS</t>
   </si>
   <si>
-    <t>Consult with Attorney</t>
-  </si>
-  <si>
-    <t>Child Removed</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>personName2</t>
-  </si>
-  <si>
-    <t>personName1</t>
-  </si>
-  <si>
-    <t>In-Person</t>
-  </si>
-  <si>
-    <t>Court</t>
-  </si>
-  <si>
-    <t>randomText</t>
+    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
+  </si>
+  <si>
+    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUSNARRATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>PARTICIPANT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHERLOCATION_VERIFY</t>
+  </si>
+  <si>
+    <t>REASONTOKNOWRATIONALE_VERIFY</t>
+  </si>
+  <si>
+    <t>INITIALICWAINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>INDIANCHILDINQ_VERIFY</t>
+  </si>
+  <si>
+    <t>MEMBEROFTRIBAL_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON1_VERIFY</t>
+  </si>
+  <si>
+    <t>ISPARENTMEMBER_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>IFTESREASON2_VERIFY</t>
+  </si>
+  <si>
+    <t>RESIDEONRESERVATION_VERIFY</t>
+  </si>
+  <si>
+    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
+  </si>
+  <si>
+    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
+  </si>
+  <si>
+    <t>MemberofTribeAlaskaNativeVillage</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe1</t>
+  </si>
+  <si>
+    <t>IsParentMemberOfTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe2</t>
+  </si>
+  <si>
+    <t>ReceivesServiceBenefitFromTribe</t>
+  </si>
+  <si>
+    <t>ifYesThenWhichTribe3</t>
+  </si>
+  <si>
+    <t>ResidesOnReservationTribalLand</t>
+  </si>
+  <si>
+    <t>AnyFamilyIdentifiedAncestryHeritage</t>
+  </si>
+  <si>
+    <t>ReceivesFederalServiceTribalBenefit</t>
+  </si>
+  <si>
+    <t>Tribal Inquiry</t>
+  </si>
+  <si>
+    <t>Clerical Worker1 Contra Costa</t>
+  </si>
+  <si>
+    <t>Reporting Party</t>
+  </si>
+  <si>
+    <t>Continue to Inquire</t>
   </si>
   <si>
     <t>Final</t>
   </si>
   <si>
-    <t>Victim1,Victim2,folioPersonName2</t>
-  </si>
-  <si>
-    <t>Victim1,Victim2,Perpetrator1,Perpetrator2,folioPersonName1,folioPersonName2</t>
-  </si>
-  <si>
-    <t>personName2,personName4</t>
-  </si>
-  <si>
-    <t>personName1,personName2,personName3,personName4</t>
-  </si>
-  <si>
-    <t>testT4148</t>
-  </si>
-  <si>
-    <t>TRIBAL_NEW_BTN</t>
-  </si>
-  <si>
-    <t>CONTACT_START_DATE_TIME</t>
-  </si>
-  <si>
-    <t>CONTACT_METHOD</t>
-  </si>
-  <si>
-    <t>STAFF_PERSON</t>
-  </si>
-  <si>
-    <t>OTHER_STAFF_PRESENT</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE</t>
-  </si>
-  <si>
-    <t>CONTINUED_ICWA_INQUIRY</t>
-  </si>
-  <si>
-    <t>FOL_TRIBAL_CONTACTID_VERIFY</t>
-  </si>
-  <si>
-    <t>TRIBALINQUIRY_COLLABORATION_VERIFY</t>
-  </si>
-  <si>
-    <t>CONTACTMETHOD_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUSNARRATIVE_VERIFY</t>
-  </si>
-  <si>
-    <t>PARTICIPANT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>OTHERLOCATION_VERIFY</t>
-  </si>
-  <si>
-    <t>REASONTOKNOWRATIONALE_VERIFY</t>
-  </si>
-  <si>
-    <t>INITIALICWAINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>INDIANCHILDINQ_VERIFY</t>
-  </si>
-  <si>
-    <t>MEMBEROFTRIBAL_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON1_VERIFY</t>
-  </si>
-  <si>
-    <t>ISPARENTMEMBER_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>IFTESREASON2_VERIFY</t>
-  </si>
-  <si>
-    <t>RESIDEONRESERVATION_VERIFY</t>
-  </si>
-  <si>
-    <t>ANYFAMILYIDENTIFIED_VERIFY</t>
-  </si>
-  <si>
-    <t>RECEIVESFEDERALSERVICE_VERIFY</t>
-  </si>
-  <si>
-    <t>MemberofTribeAlaskaNativeVillage</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe1</t>
-  </si>
-  <si>
-    <t>IsParentMemberOfTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe2</t>
-  </si>
-  <si>
-    <t>ReceivesServiceBenefitFromTribe</t>
-  </si>
-  <si>
-    <t>ifYesThenWhichTribe3</t>
-  </si>
-  <si>
-    <t>ResidesOnReservationTribalLand</t>
-  </si>
-  <si>
-    <t>AnyFamilyIdentifiedAncestryHeritage</t>
-  </si>
-  <si>
-    <t>ReceivesFederalServiceTribalBenefit</t>
-  </si>
-  <si>
-    <t>Tribal Inquiry</t>
-  </si>
-  <si>
-    <t>Clerical Worker1 Contra Costa</t>
-  </si>
-  <si>
-    <t>Reporting Party</t>
-  </si>
-  <si>
-    <t>Continue to Inquire</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -563,790 +563,790 @@
     <t>ASSIGNMENT_DESK</t>
   </si>
   <si>
+    <t>Child Welfare Court</t>
+  </si>
+  <si>
+    <t>Title IV-E Indian Tribe</t>
+  </si>
+  <si>
+    <t>Juvenile Probation</t>
+  </si>
+  <si>
+    <t>Family Maintenance No Placement</t>
+  </si>
+  <si>
+    <t>RELATED_FOLIOS_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
+  </si>
+  <si>
+    <t>CSE_PERSON</t>
+  </si>
+  <si>
+    <t>SelectFolioPersonRB</t>
+  </si>
+  <si>
+    <t>NextBt</t>
+  </si>
+  <si>
+    <t>CSEType</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>saveBtn</t>
+  </si>
+  <si>
+    <t>AddInstancesofCommercialSexualExploitation</t>
+  </si>
+  <si>
+    <t>CSEType1</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>At Risk</t>
+  </si>
+  <si>
+    <t>Victim Before Foster Care</t>
+  </si>
+  <si>
+    <t>personName4</t>
+  </si>
+  <si>
+    <t>FOLIO_AdministrativeHearings_TAB</t>
+  </si>
+  <si>
+    <t>newBtn</t>
+  </si>
+  <si>
+    <t>CorrespondenceID</t>
+  </si>
+  <si>
+    <t>allegedPerpetrator</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationMethod</t>
+  </si>
+  <si>
+    <t>SOC834ResponseReceivedDate</t>
+  </si>
+  <si>
+    <t>DOJNotificationDate</t>
+  </si>
+  <si>
+    <t>PerpetratorNotificationDate</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>FOLIO_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>PATHWAY</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR</t>
+  </si>
+  <si>
+    <t>APPROVAL_SUPERVISOR_LINK</t>
+  </si>
+  <si>
+    <t>INVESTIGATION_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>RECORD_STATUS</t>
+  </si>
+  <si>
+    <t>REFERRAL_CLOSED_DATE</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>ERSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Pending Approval</t>
+  </si>
+  <si>
+    <t>Recalled</t>
+  </si>
+  <si>
+    <t>Resubmitted</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS_TAB</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <t>PERSON_LINK</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>WORKER_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_ASSIGNMENT_ID</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>HLSupervisorContraCosta</t>
+  </si>
+  <si>
+    <t>Adoptions Worker</t>
+  </si>
+  <si>
+    <t>autoText</t>
+  </si>
+  <si>
+    <t>Case Aide</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>ASN-000001507319</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testT4258</t>
+  </si>
+  <si>
+    <t>CMWorkerContraCosta</t>
+  </si>
+  <si>
+    <t>Placement Worker</t>
+  </si>
+  <si>
+    <t>FOLIO_NEARFATALITY_TAB</t>
+  </si>
+  <si>
+    <t>allegedVictim</t>
+  </si>
+  <si>
+    <t>isChildFatalityNear</t>
+  </si>
+  <si>
+    <t>CircumstanceType</t>
+  </si>
+  <si>
+    <t>CircumstanceComments</t>
+  </si>
+  <si>
+    <t>CountyOfIncident</t>
+  </si>
+  <si>
+    <t>ResidenceTimeFatalityNearFat</t>
+  </si>
+  <si>
+    <t>IsFatalityNearDateKnown</t>
+  </si>
+  <si>
+    <t>DateFatalityNear</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Fatality</t>
+  </si>
+  <si>
+    <t>Accidental</t>
+  </si>
+  <si>
+    <t>Calaveras</t>
+  </si>
+  <si>
+    <t>Foster Care/Out-of-Home Care</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>FOLIO_CORRESPONDENCE_TAB</t>
+  </si>
+  <si>
+    <t>CACI_REPORT</t>
+  </si>
+  <si>
+    <t>PERPARATOR</t>
+  </si>
+  <si>
+    <t>NAME_UNIT_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
+  </si>
+  <si>
+    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>CROSSREPORT_SCAR</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>AGENCY_TYPE</t>
+  </si>
+  <si>
+    <t>CACI_REPORTID</t>
+  </si>
+  <si>
+    <t>CORRESPONDECE_TYPE</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>REPORTID_VERIFY</t>
+  </si>
+  <si>
+    <t>CACI_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CROSS_REPORT_ID</t>
+  </si>
+  <si>
+    <t>CORRESPONDENCE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_VERIFY</t>
+  </si>
+  <si>
+    <t>AGENCY_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CREATED_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>pom Test</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Department of Justice</t>
+  </si>
+  <si>
+    <t>Boardaman</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenDigitsNumber </t>
+  </si>
+  <si>
+    <t>CACI Report</t>
+  </si>
+  <si>
+    <t>Not Generated</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>CACI REPORTID</t>
+  </si>
+  <si>
+    <t>Ready to Send</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>CROSS REPORTID</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_FOLIO_TAB</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_SCREENING_TAB</t>
+  </si>
+  <si>
+    <t>SOC_832_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_834_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8583_VERIFY</t>
+  </si>
+  <si>
+    <t>SOC_833_VERIFY</t>
+  </si>
+  <si>
+    <t>BCIA_8572_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENTS_NEWBTN</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_STATUS</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENT</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>UPLOADED_DOC_VERIFY</t>
+  </si>
+  <si>
+    <t>TITLE_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_CATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>UPLOAD_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SHOW_ACTIONS</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>SCR_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>PRINT</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t>DOWNLOAD_CLICK</t>
+  </si>
+  <si>
+    <t>RENAME_DOCUMENT</t>
+  </si>
+  <si>
+    <t>UPLOAD_NEW_VERSION</t>
+  </si>
+  <si>
+    <t>UPDATE_STATUS</t>
+  </si>
+  <si>
+    <t>UPDATE_CATEGORY</t>
+  </si>
+  <si>
+    <t>SCAR</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>testdoc.txt</t>
+  </si>
+  <si>
+    <t>Emergency Response Referral Information.pdf</t>
+  </si>
+  <si>
+    <t>Response to Mandated Reporter.pdf</t>
+  </si>
+  <si>
+    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
+  </si>
+  <si>
+    <t>Cross Report</t>
+  </si>
+  <si>
+    <t>Manual Upload</t>
+  </si>
+  <si>
+    <t>CACI Notice</t>
+  </si>
+  <si>
+    <t>SOC 832 (Notice of CACI).pdf</t>
+  </si>
+  <si>
+    <t>SOC 834 (Request for Grievance).pdf</t>
+  </si>
+  <si>
+    <t>SOC 833 (Grievance Procedure).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8583 (CACI Index Form).pdf</t>
+  </si>
+  <si>
+    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>testT4273</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Supporting Document</t>
+  </si>
+  <si>
+    <t>Placement</t>
+  </si>
+  <si>
+    <t>Placement Preservation Strategy</t>
+  </si>
+  <si>
+    <t>Placement - Runaway or Child Abducted</t>
+  </si>
+  <si>
+    <t>Missing Youth Photo</t>
+  </si>
+  <si>
+    <t>testimage.png</t>
+  </si>
+  <si>
+    <t>Profile Photo</t>
+  </si>
+  <si>
+    <t>Person Photo</t>
+  </si>
+  <si>
+    <t>testT4274</t>
+  </si>
+  <si>
+    <t>SILP</t>
+  </si>
+  <si>
+    <t>In Draft</t>
+  </si>
+  <si>
+    <t>SILP Approval and Placement Agreement (SOC 157A).pdf</t>
+  </si>
+  <si>
+    <t>cares_mulesoft_docuedge</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
+  </si>
+  <si>
+    <t>Tribal Placement</t>
+  </si>
+  <si>
+    <t>Tribal Home Certification Letter</t>
+  </si>
+  <si>
+    <t>Case Summary</t>
+  </si>
+  <si>
+    <t>Placement Agreement</t>
+  </si>
+  <si>
+    <t>GENERATE_DOCUMENT_BTN</t>
+  </si>
+  <si>
+    <t>SUBMIT_BTN</t>
+  </si>
+  <si>
+    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
+  </si>
+  <si>
+    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
+  </si>
+  <si>
+    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
+  </si>
+  <si>
+    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
+  <si>
+    <t>RECALL_BUTTON</t>
+  </si>
+  <si>
+    <t>SUBMIT_FOR_APPROVAL</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>COMMENTS_RECALL</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>FIELD_VALUE</t>
+  </si>
+  <si>
+    <t>autotext</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>PROFILE_ICON</t>
+  </si>
+  <si>
+    <t>LOGOUT</t>
+  </si>
+  <si>
+    <t>LOGIN_VERIFY</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>testT2926</t>
+  </si>
+  <si>
+    <t>testT2922</t>
+  </si>
+  <si>
+    <t>testT2928</t>
+  </si>
+  <si>
+    <t>testScreening</t>
+  </si>
+  <si>
+    <t>testFolio</t>
+  </si>
+  <si>
+    <t>FOLIOPERSONS_TAB</t>
+  </si>
+  <si>
+    <t>VALIDATEPERSON_TAB</t>
+  </si>
+  <si>
+    <t>FOLIO_LAST_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_MIDDLE_NAME</t>
+  </si>
+  <si>
+    <t>BIRTHDATE</t>
+  </si>
+  <si>
+    <t>APPROXIMATE_AGE</t>
+  </si>
+  <si>
+    <t>SOCIAL_SECURITY_NUMBER</t>
+  </si>
+  <si>
+    <t>COUNTY</t>
+  </si>
+  <si>
+    <t>SEX_AT_BIRTH</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>HISPANIC_OR_LATINO_ETHNICITY_DETAILS</t>
+  </si>
+  <si>
+    <t>SEARCH_BTN</t>
+  </si>
+  <si>
+    <t>NEWPERSON_BTN</t>
+  </si>
+  <si>
+    <t>FP_PERSON_ID</t>
+  </si>
+  <si>
+    <t>VALIDATEPERSON_NAME</t>
+  </si>
+  <si>
+    <t>FP_ID1</t>
+  </si>
+  <si>
+    <t>FP_ID2</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ROLE</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_FIRSTNAME</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_LASTNAME</t>
+  </si>
+  <si>
+    <t>DATE_OF_BIRTH</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSONS_TAB</t>
+  </si>
+  <si>
+    <t>SEXATBIRTH</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ID</t>
+  </si>
+  <si>
+    <t>VALIDATED_PERSON_NAME</t>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+  </si>
+  <si>
+    <t>COLLATERAL_TYPE</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>Alleged Perpetrator</t>
+  </si>
+  <si>
+    <t>autoName</t>
+  </si>
+  <si>
+    <t>Alleged Victim</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Safely Surrendered Baby</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Legal Guardian</t>
+  </si>
+  <si>
+    <t>Focus Child</t>
+  </si>
+  <si>
+    <t>testT4277</t>
+  </si>
+  <si>
+    <t>Perpetrator</t>
+  </si>
+  <si>
+    <t>testT4215</t>
+  </si>
+  <si>
+    <t>Non-Minor Dependent</t>
+  </si>
+  <si>
+    <t>testT4275</t>
+  </si>
+  <si>
+    <t>Identified Parent</t>
+  </si>
+  <si>
+    <t>CaseChildLocationSetup</t>
+  </si>
+  <si>
+    <t>PRIMARY_RESPONSIBLE_AGENCY</t>
+  </si>
+  <si>
+    <t>DATE_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>METHOD_OF_NOTIFICATION_RECEIVED</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
     <t>PRIMARY_WORKER</t>
-  </si>
-  <si>
-    <t>Child Welfare Court</t>
-  </si>
-  <si>
-    <t>Title IV-E Indian Tribe</t>
-  </si>
-  <si>
-    <t>Juvenile Probation</t>
-  </si>
-  <si>
-    <t>Family Maintenance No Placement</t>
-  </si>
-  <si>
-    <t>CMWorkerContraCosta</t>
-  </si>
-  <si>
-    <t>RELATED_FOLIOS_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_COMMERCIALSEXUALEXPLOITATION_TAB</t>
-  </si>
-  <si>
-    <t>CSE_PERSON</t>
-  </si>
-  <si>
-    <t>SelectFolioPersonRB</t>
-  </si>
-  <si>
-    <t>NextBt</t>
-  </si>
-  <si>
-    <t>CSEType</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>saveBtn</t>
-  </si>
-  <si>
-    <t>AddInstancesofCommercialSexualExploitation</t>
-  </si>
-  <si>
-    <t>CSEType1</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>At Risk</t>
-  </si>
-  <si>
-    <t>Victim Before Foster Care</t>
-  </si>
-  <si>
-    <t>personName4</t>
-  </si>
-  <si>
-    <t>FOLIO_AdministrativeHearings_TAB</t>
-  </si>
-  <si>
-    <t>newBtn</t>
-  </si>
-  <si>
-    <t>CorrespondenceID</t>
-  </si>
-  <si>
-    <t>allegedPerpetrator</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationMethod</t>
-  </si>
-  <si>
-    <t>SOC834ResponseReceivedDate</t>
-  </si>
-  <si>
-    <t>DOJNotificationDate</t>
-  </si>
-  <si>
-    <t>PerpetratorNotificationDate</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>FOLIO_DETAILS_TAB</t>
-  </si>
-  <si>
-    <t>PATHWAY</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR</t>
-  </si>
-  <si>
-    <t>APPROVAL_SUPERVISOR_LINK</t>
-  </si>
-  <si>
-    <t>INVESTIGATION_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>RECORD_STATUS</t>
-  </si>
-  <si>
-    <t>REFERRAL_CLOSED_DATE</t>
-  </si>
-  <si>
-    <t>Investigation</t>
-  </si>
-  <si>
-    <t>ERSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Pending Approval</t>
-  </si>
-  <si>
-    <t>Recalled</t>
-  </si>
-  <si>
-    <t>Resubmitted</t>
-  </si>
-  <si>
-    <t>ASSIGNMENTS_TAB</t>
-  </si>
-  <si>
-    <t>PERSON</t>
-  </si>
-  <si>
-    <t>PERSON_LINK</t>
-  </si>
-  <si>
-    <t>START_DATE</t>
-  </si>
-  <si>
-    <t>WORKER_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_ASSIGNMENT_ID</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>HLSupervisorContraCosta</t>
-  </si>
-  <si>
-    <t>Adoptions Worker</t>
-  </si>
-  <si>
-    <t>autoText</t>
-  </si>
-  <si>
-    <t>Case Aide</t>
-  </si>
-  <si>
-    <t>testPOM</t>
-  </si>
-  <si>
-    <t>ASN-000001507319</t>
-  </si>
-  <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
-    <t>testT4258</t>
-  </si>
-  <si>
-    <t>Placement Worker</t>
-  </si>
-  <si>
-    <t>FOLIO_NEARFATALITY_TAB</t>
-  </si>
-  <si>
-    <t>allegedVictim</t>
-  </si>
-  <si>
-    <t>isChildFatalityNear</t>
-  </si>
-  <si>
-    <t>CircumstanceType</t>
-  </si>
-  <si>
-    <t>CircumstanceComments</t>
-  </si>
-  <si>
-    <t>CountyOfIncident</t>
-  </si>
-  <si>
-    <t>ResidenceTimeFatalityNearFat</t>
-  </si>
-  <si>
-    <t>IsFatalityNearDateKnown</t>
-  </si>
-  <si>
-    <t>DateFatalityNear</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>CHILD_FATALITY_OR_NEARFATALITY</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>Fatality</t>
-  </si>
-  <si>
-    <t>Accidental</t>
-  </si>
-  <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
-    <t>Foster Care/Out-of-Home Care</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>FOLIO_CORRESPONDENCE_TAB</t>
-  </si>
-  <si>
-    <t>CACI_REPORT</t>
-  </si>
-  <si>
-    <t>PERPARATOR</t>
-  </si>
-  <si>
-    <t>NAME_UNIT_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>RETURN_ADDRESS_WITHIN_COUNTY</t>
-  </si>
-  <si>
-    <t>PHOTO_TAKEN_OFSUBSTANTIATED_ALLEGATION</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBER</t>
-  </si>
-  <si>
-    <t>CROSSREPORT_SCAR</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>AGENCY_TYPE</t>
-  </si>
-  <si>
-    <t>CACI_REPORTID</t>
-  </si>
-  <si>
-    <t>CORRESPONDECE_TYPE</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>REPORTID_VERIFY</t>
-  </si>
-  <si>
-    <t>CACI_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CROSS_REPORT_ID</t>
-  </si>
-  <si>
-    <t>CORRESPONDENCE_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>PERPETRATOR_VERIFY</t>
-  </si>
-  <si>
-    <t>AGENCY_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CREATED_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>pom Test</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>Department of Justice</t>
-  </si>
-  <si>
-    <t>Boardaman</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenDigitsNumber </t>
-  </si>
-  <si>
-    <t>CACI Report</t>
-  </si>
-  <si>
-    <t>Not Generated</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>CACI REPORTID</t>
-  </si>
-  <si>
-    <t>Ready to Send</t>
-  </si>
-  <si>
-    <t>Generated</t>
-  </si>
-  <si>
-    <t>CROSS REPORTID</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_FOLIO_TAB</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_SCREENING_TAB</t>
-  </si>
-  <si>
-    <t>SOC_832_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_834_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8583_VERIFY</t>
-  </si>
-  <si>
-    <t>SOC_833_VERIFY</t>
-  </si>
-  <si>
-    <t>BCIA_8572_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENTS_NEWBTN</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_STATUS</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENT</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
-    <t>UPLOADED_DOC_VERIFY</t>
-  </si>
-  <si>
-    <t>TITLE_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_CATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>DOCUMENT_TYPE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>UPLOAD_BY_VERIFY</t>
-  </si>
-  <si>
-    <t>DESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>SHOW_ACTIONS</t>
-  </si>
-  <si>
-    <t>DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>SCR_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_DOCUMENT_NAME</t>
-  </si>
-  <si>
-    <t>PRINT</t>
-  </si>
-  <si>
-    <t>VIEW</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>DOWNLOAD</t>
-  </si>
-  <si>
-    <t>DOWNLOAD_CLICK</t>
-  </si>
-  <si>
-    <t>RENAME_DOCUMENT</t>
-  </si>
-  <si>
-    <t>UPLOAD_NEW_VERSION</t>
-  </si>
-  <si>
-    <t>UPDATE_STATUS</t>
-  </si>
-  <si>
-    <t>UPDATE_CATEGORY</t>
-  </si>
-  <si>
-    <t>SCAR</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>testdoc.txt</t>
-  </si>
-  <si>
-    <t>Emergency Response Referral Information.pdf</t>
-  </si>
-  <si>
-    <t>Response to Mandated Reporter.pdf</t>
-  </si>
-  <si>
-    <t>Document uploaded successfully! The document is being scanned for the malware. Your document will be aviable to view shortly.</t>
-  </si>
-  <si>
-    <t>Cross Report</t>
-  </si>
-  <si>
-    <t>Manual Upload</t>
-  </si>
-  <si>
-    <t>CACI Notice</t>
-  </si>
-  <si>
-    <t>SOC 832 (Notice of CACI).pdf</t>
-  </si>
-  <si>
-    <t>SOC 834 (Request for Grievance).pdf</t>
-  </si>
-  <si>
-    <t>SOC 833 (Grievance Procedure).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8583 (CACI Index Form).pdf</t>
-  </si>
-  <si>
-    <t>BCIA 8572, Suspected Child Abuse Report.pdf</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>testT4273</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Supporting Document</t>
-  </si>
-  <si>
-    <t>Placement</t>
-  </si>
-  <si>
-    <t>Placement Preservation Strategy</t>
-  </si>
-  <si>
-    <t>Placement - Runaway or Child Abducted</t>
-  </si>
-  <si>
-    <t>Missing Youth Photo</t>
-  </si>
-  <si>
-    <t>testimage.jpeg</t>
-  </si>
-  <si>
-    <t>Profile Photo</t>
-  </si>
-  <si>
-    <t>Person Photo</t>
-  </si>
-  <si>
-    <t>testT4274</t>
-  </si>
-  <si>
-    <t>SILP</t>
-  </si>
-  <si>
-    <t>In Draft</t>
-  </si>
-  <si>
-    <t>SILP Approval and Placement Agreement (SOC 157A).pdf</t>
-  </si>
-  <si>
-    <t>cares_mulesoft_docuedge</t>
-  </si>
-  <si>
-    <t>testT4275_2</t>
-  </si>
-  <si>
-    <t>Tribal Placement</t>
-  </si>
-  <si>
-    <t>Tribal Home Certification Letter</t>
-  </si>
-  <si>
-    <t>Case Summary</t>
-  </si>
-  <si>
-    <t>Placement Agreement</t>
-  </si>
-  <si>
-    <t>GENERATE_DOCUMENT_BTN</t>
-  </si>
-  <si>
-    <t>SUBMIT_BTN</t>
-  </si>
-  <si>
-    <t>SOC 153 - Placement Agency - Foster Family Agency Agreement Nonminor Dependent Placed by Agency in Foster Family Agency</t>
-  </si>
-  <si>
-    <t>SOC 155 - Voluntary Placement Agreement - Placement Request</t>
-  </si>
-  <si>
-    <t>SOC 156 - Agency - Foster Parents Agreement Child Placed by Agency in Foster Home</t>
-  </si>
-  <si>
-    <t>SOC 154A - Placement Agency - Foster Family Agency Agreement Child Placed By Agency In Foster Family Agency</t>
-  </si>
-  <si>
-    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>RECALL</t>
-  </si>
-  <si>
-    <t>RECALL_BUTTON</t>
-  </si>
-  <si>
-    <t>SUBMIT_FOR_APPROVAL</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>CLOSE</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>COMMENTS_RECALL</t>
-  </si>
-  <si>
-    <t>DROPDOWN</t>
-  </si>
-  <si>
-    <t>FIELD_VALUE</t>
-  </si>
-  <si>
-    <t>autotext</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>PROFILE_ICON</t>
-  </si>
-  <si>
-    <t>LOGOUT</t>
-  </si>
-  <si>
-    <t>LOGIN_VERIFY</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>testT2926</t>
-  </si>
-  <si>
-    <t>testT2922</t>
-  </si>
-  <si>
-    <t>testT2928</t>
-  </si>
-  <si>
-    <t>testScreening</t>
-  </si>
-  <si>
-    <t>testFolio</t>
-  </si>
-  <si>
-    <t>FOLIOPERSONS_TAB</t>
-  </si>
-  <si>
-    <t>VALIDATEPERSON_TAB</t>
-  </si>
-  <si>
-    <t>FOLIO_LAST_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_MIDDLE_NAME</t>
-  </si>
-  <si>
-    <t>BIRTHDATE</t>
-  </si>
-  <si>
-    <t>APPROXIMATE_AGE</t>
-  </si>
-  <si>
-    <t>SOCIAL_SECURITY_NUMBER</t>
-  </si>
-  <si>
-    <t>COUNTY</t>
-  </si>
-  <si>
-    <t>SEX_AT_BIRTH</t>
-  </si>
-  <si>
-    <t>RACE</t>
-  </si>
-  <si>
-    <t>HISPANIC_OR_LATINO_ETHNICITY_DETAILS</t>
-  </si>
-  <si>
-    <t>SEARCH_BTN</t>
-  </si>
-  <si>
-    <t>NEWPERSON_BTN</t>
-  </si>
-  <si>
-    <t>FP_PERSON_ID</t>
-  </si>
-  <si>
-    <t>VALIDATEPERSON_NAME</t>
-  </si>
-  <si>
-    <t>FP_ID1</t>
-  </si>
-  <si>
-    <t>FP_ID2</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_ROLE</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_FIRSTNAME</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_LASTNAME</t>
-  </si>
-  <si>
-    <t>DATE_OF_BIRTH</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSONS_TAB</t>
-  </si>
-  <si>
-    <t>SEXATBIRTH</t>
-  </si>
-  <si>
-    <t>FOLIO_PERSON_ID</t>
-  </si>
-  <si>
-    <t>VALIDATED_PERSON_NAME</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>COLLATERAL_TYPE</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>END_DATE</t>
-  </si>
-  <si>
-    <t>Alleged Perpetrator</t>
-  </si>
-  <si>
-    <t>autoName</t>
-  </si>
-  <si>
-    <t>Alleged Victim</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>Safely Surrendered Baby</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Legal Guardian</t>
-  </si>
-  <si>
-    <t>Focus Child</t>
-  </si>
-  <si>
-    <t>testT4277</t>
-  </si>
-  <si>
-    <t>Perpetrator</t>
-  </si>
-  <si>
-    <t>testT4215</t>
-  </si>
-  <si>
-    <t>Non-Minor Dependent</t>
-  </si>
-  <si>
-    <t>testT4275</t>
-  </si>
-  <si>
-    <t>Identified Parent</t>
-  </si>
-  <si>
-    <t>CaseChildLocationSetup</t>
-  </si>
-  <si>
-    <t>PRIMARY_RESPONSIBLE_AGENCY</t>
-  </si>
-  <si>
-    <t>DATE_NOTIFICATION_RECEIVED</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>METHOD_OF_NOTIFICATION_RECEIVED</t>
-  </si>
-  <si>
-    <t>STATE</t>
   </si>
   <si>
     <t>Child Welfare Voluntary</t>
@@ -1783,10 +1783,7 @@
     <t>SOC 157B - Supervised Independent Living Placement (SILP) Inspection: Checklist of Facility Health and Safety Standards</t>
   </si>
   <si>
-    <t>testT4149</t>
-  </si>
-  <si>
-    <t>testT4245</t>
+    <t>NEW_BUTTON</t>
   </si>
   <si>
     <t>TRIBAL_INFO_TAB</t>
@@ -1798,10 +1795,16 @@
     <t>CHILD_MEMBERSHIP_STATUS</t>
   </si>
   <si>
+    <t>TRIBE_LOCATION</t>
+  </si>
+  <si>
+    <t>ENROLLMENT_START_DATE</t>
+  </si>
+  <si>
     <t>SAVE_AND_PROCEED</t>
   </si>
   <si>
-    <t>NEW_BUTTON</t>
+    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
   </si>
   <si>
     <t>New Tribe</t>
@@ -1810,19 +1813,7 @@
     <t>Enrolled</t>
   </si>
   <si>
-    <t>TRIBE_LOCATION</t>
-  </si>
-  <si>
-    <t>ENROLLMENT_START_DATE</t>
-  </si>
-  <si>
     <t>America</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>POTENTIAL_TRIBAL_AFFILIATION</t>
   </si>
   <si>
     <t>Reason To Know</t>
@@ -2048,7 +2039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2131,7 +2122,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{0244CCC0-C70B-4F46-AB95-4E0A98C0C68C}"/>
@@ -2450,7 +2444,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3335,31 +3329,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="H1" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>201</v>
       </c>
       <c r="M1" s="51"/>
     </row>
@@ -3374,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="51" t="s">
@@ -3404,10 +3398,10 @@
         <v>19</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>19</v>
@@ -3422,7 +3416,7 @@
         <v>149</v>
       </c>
       <c r="K3" s="49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L3" s="49" t="s">
         <v>59</v>
@@ -3440,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>30</v>
@@ -3461,7 +3455,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>30</v>
@@ -3479,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>30</v>
@@ -3500,7 +3494,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>30</v>
@@ -3518,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E6" s="40" t="s">
         <v>28</v>
@@ -3560,10 +3554,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="70" t="s">
         <v>19</v>
@@ -3578,7 +3572,7 @@
         <v>149</v>
       </c>
       <c r="K7" s="70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -3594,7 +3588,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3623,37 +3617,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="J1" s="40" t="s">
         <v>13</v>
       </c>
       <c r="K1" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="M1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="51" t="s">
         <v>213</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>215</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -3669,13 +3663,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>19</v>
@@ -3684,16 +3678,16 @@
         <v>59</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J2" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K2" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
@@ -3711,13 +3705,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>19</v>
@@ -3726,16 +3720,16 @@
         <v>59</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M3" s="51"/>
       <c r="N3" s="51"/>
@@ -3744,7 +3738,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -3753,13 +3747,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>19</v>
@@ -3768,16 +3762,16 @@
         <v>59</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J4" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M4" s="40" t="s">
         <v>19</v>
@@ -3788,7 +3782,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -3800,10 +3794,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>19</v>
@@ -3812,10 +3806,10 @@
         <v>59</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J5" s="40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K5" s="51" t="s">
         <v>28</v>
@@ -3834,7 +3828,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" s="70">
         <v>1</v>
@@ -3846,10 +3840,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="G6" s="70" t="s">
         <v>19</v>
@@ -3858,10 +3852,10 @@
         <v>59</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K6" s="70" t="s">
         <v>28</v>
@@ -3915,43 +3909,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3965,37 +3959,37 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
@@ -4023,19 +4017,19 @@
         <v>28</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>59</v>
@@ -4044,10 +4038,10 @@
         <v>19</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4506,43 +4500,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="P1" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="P1" s="41" t="s">
-        <v>253</v>
       </c>
       <c r="Q1" s="41" t="s">
         <v>13</v>
@@ -4551,43 +4545,43 @@
         <v>15</v>
       </c>
       <c r="S1" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="T1" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="X1" s="41" t="s">
         <v>258</v>
-      </c>
-      <c r="X1" s="41" t="s">
-        <v>259</v>
       </c>
       <c r="Y1" s="41" t="s">
         <v>152</v>
       </c>
       <c r="Z1" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA1" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="AA1" s="41" t="s">
+      <c r="AB1" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="AB1" s="41" t="s">
+      <c r="AC1" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AD1" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AE1" s="41" t="s">
         <v>264</v>
-      </c>
-      <c r="AE1" s="41" t="s">
-        <v>265</v>
       </c>
       <c r="AF1" s="51"/>
       <c r="AG1" s="51"/>
@@ -4604,22 +4598,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I2" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>149</v>
@@ -4651,7 +4645,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -4660,27 +4654,27 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
       <c r="K3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="51" t="s">
         <v>268</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>269</v>
       </c>
       <c r="O3" s="51"/>
       <c r="P3" s="51"/>
@@ -4717,7 +4711,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -4729,16 +4723,16 @@
         <v>34</v>
       </c>
       <c r="I4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="46" t="s">
+      <c r="L4" s="29" t="s">
         <v>271</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>272</v>
       </c>
       <c r="M4" s="44"/>
       <c r="N4" s="44"/>
@@ -4754,41 +4748,41 @@
         <v>149</v>
       </c>
       <c r="T4" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="U4" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="V4" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="V4" s="46" t="s">
+      <c r="W4" s="46" t="s">
         <v>275</v>
-      </c>
-      <c r="W4" s="46" t="s">
-        <v>276</v>
       </c>
       <c r="X4" s="46"/>
       <c r="Y4" s="46" t="s">
         <v>149</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AD4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG4" s="46" t="s">
         <v>149</v>
@@ -4809,7 +4803,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>151</v>
@@ -4836,13 +4830,13 @@
         <v>19</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="46" t="s">
         <v>19</v>
@@ -4851,12 +4845,12 @@
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
       <c r="U5" s="46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
       <c r="X5" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y5" s="46"/>
       <c r="Z5" s="46"/>
@@ -4931,7 +4925,7 @@
         <v>28</v>
       </c>
       <c r="U6" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V6" s="51" t="s">
         <v>28</v>
@@ -4972,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065689CF-B8B7-4123-B223-FA611E0B0CC8}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -5033,109 +5027,109 @@
         <v>152</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="K1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="O1" s="40" t="s">
         <v>153</v>
       </c>
       <c r="P1" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q1" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="R1" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="R1" s="43" t="s">
+      <c r="S1" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="W1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Y1" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="AA1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="AB1" s="40" t="s">
+      <c r="AC1" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AD1" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AE1" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AF1" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="AF1" s="40" t="s">
+      <c r="AG1" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AH1" s="40" t="s">
         <v>306</v>
       </c>
-      <c r="AH1" s="40" t="s">
+      <c r="AI1" s="71" t="s">
         <v>307</v>
       </c>
-      <c r="AI1" s="71" t="s">
+      <c r="AJ1" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="AJ1" s="40" t="s">
+      <c r="AK1" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="AK1" s="40" t="s">
+      <c r="AL1" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="AL1" s="40" t="s">
+      <c r="AM1" s="40" t="s">
         <v>311</v>
-      </c>
-      <c r="AM1" s="40" t="s">
-        <v>312</v>
       </c>
       <c r="AN1" s="40" t="s">
         <v>96</v>
@@ -5182,19 +5176,19 @@
         <v>19</v>
       </c>
       <c r="N2" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="O2" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="O2" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>315</v>
       </c>
       <c r="S2" s="49" t="s">
         <v>19</v>
@@ -5227,10 +5221,10 @@
         <v>30</v>
       </c>
       <c r="AC2" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD2" s="49" t="s">
         <v>316</v>
-      </c>
-      <c r="AD2" s="49" t="s">
-        <v>317</v>
       </c>
       <c r="AE2" s="49" t="s">
         <v>30</v>
@@ -5260,7 +5254,7 @@
         <v>30</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="46" customFormat="1">
@@ -5304,19 +5298,19 @@
         <v>19</v>
       </c>
       <c r="N3" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>320</v>
-      </c>
       <c r="P3" s="49" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q3" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="R3" s="49" t="s">
         <v>314</v>
-      </c>
-      <c r="R3" s="49" t="s">
-        <v>315</v>
       </c>
       <c r="S3" s="49" t="s">
         <v>19</v>
@@ -5426,49 +5420,49 @@
         <v>28</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O4" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="P4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="49" t="s">
         <v>321</v>
-      </c>
-      <c r="P4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="49" t="s">
-        <v>322</v>
       </c>
       <c r="AC4" s="49" t="s">
         <v>30</v>
@@ -5590,7 +5584,7 @@
         <v>149</v>
       </c>
       <c r="AB5" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC5" s="49" t="s">
         <v>30</v>
@@ -5712,7 +5706,7 @@
         <v>149</v>
       </c>
       <c r="AB6" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC6" s="49" t="s">
         <v>30</v>
@@ -5834,7 +5828,7 @@
         <v>149</v>
       </c>
       <c r="AB7" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC7" s="49" t="s">
         <v>30</v>
@@ -5956,7 +5950,7 @@
         <v>149</v>
       </c>
       <c r="AB8" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC8" s="49" t="s">
         <v>30</v>
@@ -6036,20 +6030,20 @@
         <v>19</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O9" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="R9" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>315</v>
-      </c>
       <c r="S9" s="49" t="s">
         <v>19</v>
       </c>
@@ -6078,7 +6072,7 @@
         <v>149</v>
       </c>
       <c r="AB9" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AC9" s="49" t="s">
         <v>30</v>
@@ -6111,7 +6105,7 @@
         <v>149</v>
       </c>
       <c r="AM9" s="49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AN9" s="49" t="s">
         <v>30</v>
@@ -6119,58 +6113,58 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="51">
+        <v>1</v>
+      </c>
+      <c r="C10" s="51">
+        <v>1</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="51">
-        <v>1</v>
-      </c>
-      <c r="C10" s="51">
-        <v>1</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="51" t="s">
+      <c r="O10" s="51" t="s">
         <v>329</v>
       </c>
-      <c r="O10" s="51" t="s">
-        <v>330</v>
-      </c>
       <c r="P10" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="54" t="s">
         <v>314</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>315</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>19</v>
@@ -6200,7 +6194,7 @@
         <v>151</v>
       </c>
       <c r="AB10" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC10" s="51"/>
       <c r="AD10" s="51"/>
@@ -6235,7 +6229,7 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="51">
         <v>1</v>
@@ -6274,20 +6268,20 @@
         <v>19</v>
       </c>
       <c r="N11" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="O11" s="51" t="s">
-        <v>332</v>
-      </c>
       <c r="P11" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="R11" s="54" t="s">
-        <v>315</v>
-      </c>
       <c r="S11" s="51" t="s">
         <v>19</v>
       </c>
@@ -6316,7 +6310,7 @@
         <v>19</v>
       </c>
       <c r="AB11" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AC11" s="49" t="s">
         <v>28</v>
@@ -6355,7 +6349,7 @@
     </row>
     <row r="12" spans="1:40" s="51" customFormat="1">
       <c r="A12" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="46">
         <v>1</v>
@@ -6367,7 +6361,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>28</v>
@@ -6394,19 +6388,19 @@
         <v>19</v>
       </c>
       <c r="N12" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="O12" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="P12" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="46" t="s">
         <v>334</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="R12" s="46" t="s">
-        <v>335</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>19</v>
@@ -6477,7 +6471,7 @@
     </row>
     <row r="13" spans="1:40" s="51" customFormat="1">
       <c r="A13" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="46">
         <v>1</v>
@@ -6489,7 +6483,7 @@
         <v>28</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>28</v>
@@ -6516,19 +6510,19 @@
         <v>19</v>
       </c>
       <c r="N13" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="O13" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="O13" s="46" t="s">
-        <v>337</v>
-      </c>
       <c r="P13" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="51" t="s">
-        <v>314</v>
+        <v>148</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="R13" s="46" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>19</v>
@@ -6599,79 +6593,79 @@
     </row>
     <row r="14" spans="1:40" s="12" customFormat="1">
       <c r="A14" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="O14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="Q14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" s="13" t="s">
+      <c r="V14" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="13" t="s">
         <v>341</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="13" t="s">
-        <v>342</v>
       </c>
       <c r="Z14" s="13" t="s">
         <v>28</v>
@@ -6685,58 +6679,58 @@
     </row>
     <row r="15" spans="1:40" s="51" customFormat="1" ht="43.5">
       <c r="A15" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="B15" s="46">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="46">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46">
-        <v>1</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="O15" s="68" t="s">
-        <v>345</v>
-      </c>
       <c r="P15" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q15" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>19</v>
@@ -6807,7 +6801,7 @@
     </row>
     <row r="16" spans="1:40" s="51" customFormat="1">
       <c r="A16" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="46">
         <v>1</v>
@@ -6846,19 +6840,19 @@
         <v>19</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O16" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P16" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q16" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>19</v>
@@ -6929,7 +6923,7 @@
     </row>
     <row r="17" spans="1:40" s="51" customFormat="1" ht="29">
       <c r="A17" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -6968,19 +6962,19 @@
         <v>19</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O17" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P17" s="46" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q17" s="46" t="s">
         <v>28</v>
       </c>
       <c r="R17" s="46" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S17" s="46" t="s">
         <v>19</v>
@@ -7080,7 +7074,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>153</v>
@@ -7089,12 +7083,12 @@
         <v>152</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="46">
         <v>1</v>
@@ -7106,7 +7100,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F2" s="46" t="s">
         <v>19</v>
@@ -7117,7 +7111,7 @@
     </row>
     <row r="3" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A3" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7129,7 +7123,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="46" t="s">
         <v>19</v>
@@ -7140,7 +7134,7 @@
     </row>
     <row r="4" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A4" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B4" s="46">
         <v>1</v>
@@ -7152,7 +7146,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>19</v>
@@ -7163,7 +7157,7 @@
     </row>
     <row r="5" spans="1:7" s="46" customFormat="1" ht="16">
       <c r="A5" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="46">
         <v>1</v>
@@ -7175,7 +7169,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="46" t="s">
         <v>19</v>
@@ -7225,37 +7219,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="N1" s="64" t="s">
         <v>362</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="64" t="s">
-        <v>363</v>
       </c>
       <c r="O1" s="51"/>
       <c r="P1" s="51"/>
@@ -7292,7 +7286,7 @@
         <v>151</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M2" s="26" t="s">
         <v>28</v>
@@ -7303,7 +7297,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="51">
         <v>1</v>
@@ -7347,7 +7341,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="51">
         <v>1</v>
@@ -7386,7 +7380,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O4" s="51"/>
       <c r="P4" s="51"/>
@@ -7439,13 +7433,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="51" t="s">
         <v>367</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7456,7 +7450,7 @@
         <v>151</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>19</v>
@@ -7470,7 +7464,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="29">
         <v>1</v>
@@ -7490,7 +7484,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B4" s="29">
         <v>2</v>
@@ -7510,7 +7504,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -7530,7 +7524,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B6" s="29">
         <v>1</v>
@@ -7550,7 +7544,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="29">
         <v>2</v>
@@ -7570,7 +7564,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="29">
         <v>1</v>
@@ -7590,7 +7584,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="29">
         <v>2</v>
@@ -7610,7 +7604,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="29">
         <v>1</v>
@@ -7630,7 +7624,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B11" s="29">
         <v>2</v>
@@ -7681,55 +7675,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -7749,7 +7743,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>151</v>
@@ -7785,7 +7779,7 @@
         <v>19</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S2" s="51" t="s">
         <v>19</v>
@@ -7847,7 +7841,7 @@
         <v>19</v>
       </c>
       <c r="R3" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S3" s="46" t="s">
         <v>19</v>
@@ -7909,7 +7903,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S4" s="46" t="s">
         <v>19</v>
@@ -7926,10 +7920,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC115C88-C50A-4C63-8FE8-A3BB8E337BDA}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7952,16 +7946,16 @@
     <col min="16" max="16" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="13" style="51" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="13.6328125" customWidth="1"/>
-    <col min="24" max="24" width="25.81640625" customWidth="1"/>
-    <col min="25" max="25" width="17" style="51" customWidth="1"/>
-    <col min="26" max="26" width="25.81640625" style="51" customWidth="1"/>
-    <col min="27" max="27" width="19.6328125" customWidth="1"/>
-    <col min="28" max="28" width="29.6328125" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+    <col min="22" max="22" width="19.81640625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="24" max="24" width="25.26953125" customWidth="1"/>
+    <col min="25" max="25" width="17.1796875" customWidth="1"/>
+    <col min="26" max="26" width="24.6328125" customWidth="1"/>
+    <col min="27" max="27" width="19.26953125" customWidth="1"/>
+    <col min="28" max="28" width="29.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -7975,79 +7969,79 @@
         <v>2</v>
       </c>
       <c r="D1" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>395</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>396</v>
       </c>
       <c r="H1" s="43" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="L1" s="43" t="s">
-        <v>388</v>
-      </c>
       <c r="M1" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="Q1" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="R1" s="42" t="s">
         <v>402</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="42" t="s">
         <v>404</v>
       </c>
-      <c r="T1" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="74" t="s">
+        <v>564</v>
+      </c>
+      <c r="V1" s="73" t="s">
+        <v>565</v>
+      </c>
+      <c r="W1" s="73" t="s">
+        <v>566</v>
+      </c>
+      <c r="X1" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y1" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z1" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA1" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="V1" t="s">
-        <v>566</v>
-      </c>
-      <c r="W1" t="s">
-        <v>567</v>
-      </c>
-      <c r="X1" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z1" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>577</v>
+      <c r="AB1" s="73" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="16" customFormat="1">
@@ -8061,13 +8055,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>407</v>
-      </c>
       <c r="F2" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>59</v>
@@ -8111,9 +8105,30 @@
       <c r="T2" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
+      <c r="U2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="73" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:28" s="16" customFormat="1">
       <c r="A3" s="46" t="s">
@@ -8126,13 +8141,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G3" s="19" t="s">
         <v>59</v>
@@ -8176,28 +8191,28 @@
       <c r="T3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="16" t="s">
+      <c r="U3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="73" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8215,10 +8230,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -8239,57 +8254,57 @@
         <v>19</v>
       </c>
       <c r="M4" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="N4" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="N4" s="51" t="s">
-        <v>410</v>
-      </c>
       <c r="O4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S4" s="51" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T4" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="U4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="U4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -8348,28 +8363,28 @@
       <c r="T5" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="51" t="s">
+      <c r="U5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA5" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="73" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8429,33 +8444,33 @@
         <v>28</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="51" t="s">
+      <c r="U6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="73" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8470,13 +8485,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="E7" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="51" t="s">
-        <v>407</v>
-      </c>
       <c r="F7" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G7" s="51" t="s">
         <v>59</v>
@@ -8497,7 +8512,7 @@
         <v>19</v>
       </c>
       <c r="M7" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N7" s="51" t="s">
         <v>28</v>
@@ -8520,28 +8535,28 @@
       <c r="T7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="51" t="s">
+      <c r="U7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="73" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8556,13 +8571,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G8" s="51" t="s">
         <v>59</v>
@@ -8583,7 +8598,7 @@
         <v>19</v>
       </c>
       <c r="M8" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N8" s="51" t="s">
         <v>28</v>
@@ -8606,34 +8621,34 @@
       <c r="T8" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="51" t="s">
+      <c r="U8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="51">
         <v>1</v>
@@ -8642,13 +8657,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G9" s="51" t="s">
         <v>59</v>
@@ -8669,7 +8684,7 @@
         <v>19</v>
       </c>
       <c r="M9" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>28</v>
@@ -8692,34 +8707,34 @@
       <c r="T9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB9" s="51" t="s">
+      <c r="U9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB9" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="51">
         <v>1</v>
@@ -8728,13 +8743,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G10" s="51" t="s">
         <v>59</v>
@@ -8755,7 +8770,7 @@
         <v>19</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>28</v>
@@ -8778,34 +8793,34 @@
       <c r="T10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" s="51" t="s">
+      <c r="U10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="55" customFormat="1">
       <c r="A11" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B11" s="55">
         <v>1</v>
@@ -8814,13 +8829,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G11" s="55" t="s">
         <v>28</v>
@@ -8864,34 +8879,34 @@
       <c r="T11" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB11" s="51" t="s">
+      <c r="U11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="55" customFormat="1">
       <c r="A12" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B12" s="55">
         <v>1</v>
@@ -8900,13 +8915,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>28</v>
@@ -8950,34 +8965,34 @@
       <c r="T12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="U12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="51" t="s">
+      <c r="U12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" s="51">
         <v>1</v>
@@ -9036,34 +9051,34 @@
       <c r="T13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB13" s="51" t="s">
+      <c r="U13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA13" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB13" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B14" s="51">
         <v>1</v>
@@ -9072,13 +9087,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>59</v>
@@ -9122,34 +9137,34 @@
       <c r="T14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB14" s="51" t="s">
+      <c r="U14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B15" s="51">
         <v>1</v>
@@ -9158,13 +9173,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>59</v>
@@ -9208,34 +9223,34 @@
       <c r="T15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB15" s="51" t="s">
+      <c r="U15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA15" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB15" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B16" s="51">
         <v>1</v>
@@ -9244,13 +9259,13 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G16" s="51" t="s">
         <v>59</v>
@@ -9294,34 +9309,34 @@
       <c r="T16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB16" s="51" t="s">
+      <c r="U16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="46" customFormat="1">
       <c r="A17" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" s="46">
         <v>1</v>
@@ -9330,13 +9345,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G17" s="46" t="s">
         <v>59</v>
@@ -9380,34 +9395,34 @@
       <c r="T17" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB17" s="51" t="s">
+      <c r="U17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA17" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB17" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="46" customFormat="1">
       <c r="A18" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="46">
         <v>1</v>
@@ -9416,13 +9431,13 @@
         <v>2</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" s="46" t="s">
         <v>59</v>
@@ -9466,34 +9481,34 @@
       <c r="T18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB18" s="51" t="s">
+      <c r="U18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA18" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB18" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="46" customFormat="1">
       <c r="A19" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="46">
         <v>1</v>
@@ -9502,13 +9517,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G19" s="46" t="s">
         <v>59</v>
@@ -9552,34 +9567,34 @@
       <c r="T19" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB19" s="51" t="s">
+      <c r="U19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA19" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB19" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
@@ -9588,13 +9603,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>59</v>
@@ -9615,7 +9630,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>28</v>
@@ -9638,34 +9653,34 @@
       <c r="T20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="51" t="s">
+      <c r="U20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA20" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB20" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
@@ -9674,13 +9689,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>59</v>
@@ -9701,7 +9716,7 @@
         <v>19</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>28</v>
@@ -9724,34 +9739,34 @@
       <c r="T21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB21" s="51" t="s">
+      <c r="U21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA21" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="5">
         <v>1</v>
@@ -9760,13 +9775,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>59</v>
@@ -9787,7 +9802,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>28</v>
@@ -9810,34 +9825,34 @@
       <c r="T22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="51" t="s">
+      <c r="U22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="W22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="X22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:28" s="31" customFormat="1">
       <c r="A23" s="70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="70">
         <v>1</v>
@@ -9846,13 +9861,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G23" s="70" t="s">
         <v>28</v>
@@ -9896,201 +9911,115 @@
       <c r="T23" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="U23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB23" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="70" customFormat="1">
-      <c r="A24" s="70" t="s">
-        <v>564</v>
-      </c>
-      <c r="B24" s="70">
-        <v>1</v>
-      </c>
-      <c r="C24" s="70">
-        <v>1</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="G24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB24" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="70" customFormat="1">
-      <c r="A25" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B25" s="70">
-        <v>1</v>
-      </c>
-      <c r="C25" s="70">
+      <c r="U23" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA23" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="75">
+        <v>1</v>
+      </c>
+      <c r="C24" s="75">
         <v>2</v>
       </c>
-      <c r="D25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="P25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="70" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="V25" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="W25" s="70" t="s">
-        <v>571</v>
-      </c>
-      <c r="X25" s="70" t="s">
+      <c r="D24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="T24" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="U24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="W24" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="Y25" s="70" t="s">
+      <c r="X24" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y24" s="75" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z24" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA24" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="75" t="s">
         <v>575</v>
-      </c>
-      <c r="Z25" s="70" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA25" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB25" s="70" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -10849,31 +10778,31 @@
         <v>160</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
       <c r="G1" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>165</v>
-      </c>
       <c r="L1" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M1" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N1" s="51" t="s">
         <v>13</v>
@@ -10881,7 +10810,7 @@
     </row>
     <row r="2" spans="1:14" s="34" customFormat="1">
       <c r="A2" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="34">
         <v>1</v>
@@ -10896,13 +10825,13 @@
         <v>428</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>429</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" s="34" t="s">
         <v>430</v>
@@ -10911,7 +10840,7 @@
         <v>431</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="L2" s="34" t="s">
         <v>432</v>
@@ -10958,19 +10887,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>433</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>434</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10990,10 +10919,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="51" t="s">
         <v>19</v>
@@ -11056,13 +10985,13 @@
         <v>436</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I1" s="51" t="s">
         <v>437</v>
@@ -11154,7 +11083,7 @@
         <v>454</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="51" t="s">
         <v>59</v>
@@ -11243,7 +11172,7 @@
         <v>455</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F3" s="51" t="s">
         <v>59</v>
@@ -11335,7 +11264,7 @@
         <v>456</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" s="51" t="s">
         <v>28</v>
@@ -11432,7 +11361,7 @@
         <v>454</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>28</v>
@@ -12005,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>149</v>
@@ -12106,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>28</v>
@@ -12661,10 +12590,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F26082-EA83-4A35-BBD3-990DF7F89614}">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:BF6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -12686,7 +12615,7 @@
     <col min="16" max="16384" width="8.81640625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -12697,10 +12626,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="41" t="s">
         <v>487</v>
@@ -12733,7 +12662,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="46" customFormat="1" ht="58">
+    <row r="2" spans="1:15" s="46" customFormat="1" ht="58">
       <c r="A2" s="56" t="s">
         <v>27</v>
       </c>
@@ -12780,7 +12709,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:58" s="46" customFormat="1" ht="29">
+    <row r="3" spans="1:15" s="46" customFormat="1" ht="29">
       <c r="A3" s="56" t="s">
         <v>27</v>
       </c>
@@ -12791,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>19</v>
@@ -12827,9 +12756,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:15">
       <c r="A4" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="40">
         <v>1</v>
@@ -12838,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>19</v>
@@ -12866,7 +12795,7 @@
       <c r="N4" s="51"/>
       <c r="O4" s="51"/>
     </row>
-    <row r="5" spans="1:58" s="31" customFormat="1">
+    <row r="5" spans="1:15" s="31" customFormat="1">
       <c r="A5" s="70" t="s">
         <v>36</v>
       </c>
@@ -12877,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>19</v>
@@ -12907,95 +12836,24 @@
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
     </row>
-    <row r="6" spans="1:58">
-      <c r="A6" s="51" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="51">
-        <v>1</v>
-      </c>
-      <c r="C6" s="51">
-        <v>1</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>28</v>
-      </c>
+    <row r="6" spans="1:15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51"/>
-      <c r="AJ6" s="51"/>
-      <c r="AK6" s="51"/>
-      <c r="AL6" s="51"/>
-      <c r="AM6" s="51"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="51"/>
-      <c r="BD6" s="51"/>
-      <c r="BE6" s="51"/>
-      <c r="BF6" s="51"/>
-    </row>
-    <row r="7" spans="1:58">
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="51"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -13012,7 +12870,7 @@
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:15">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -13029,7 +12887,7 @@
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:15">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -13178,7 +13036,7 @@
     </row>
     <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13234,7 +13092,7 @@
       <c r="S2" s="48"/>
       <c r="T2" s="48"/>
       <c r="U2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
@@ -13246,7 +13104,7 @@
         <v>520</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>28</v>
@@ -13267,22 +13125,22 @@
         <v>28</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AH2" s="5">
         <v>89377</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AL2" s="5"/>
     </row>
@@ -13339,7 +13197,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13351,7 +13209,7 @@
         <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>28</v>
@@ -13421,7 +13279,7 @@
         <v>535</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>13</v>
@@ -13429,7 +13287,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13438,10 +13296,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
@@ -13463,7 +13321,7 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -13567,7 +13425,7 @@
         <v>555</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC1" s="51" t="s">
         <v>556</v>
@@ -13575,7 +13433,7 @@
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -13584,27 +13442,27 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
@@ -13617,7 +13475,7 @@
         <v>558</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>559</v>
@@ -13626,13 +13484,13 @@
         <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W2" s="51" t="s">
         <v>560</v>
@@ -13652,7 +13510,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -13661,7 +13519,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -13700,7 +13558,7 @@
         <v>28</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>563</v>
@@ -13709,7 +13567,7 @@
         <v>28</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U3" s="5" t="s">
         <v>28</v>
@@ -13746,10 +13604,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE06A9D-8317-49A7-9A82-039A1B827ECC}">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13794,7 +13652,7 @@
     <col min="40" max="40" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -13915,11 +13773,8 @@
       <c r="AN1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="AO1" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
+    </row>
+    <row r="2" spans="1:40">
       <c r="A2" s="51" t="s">
         <v>35</v>
       </c>
@@ -13939,40 +13794,40 @@
         <v>19</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="51" t="s">
         <v>99</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>100</v>
       </c>
       <c r="J2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="M2" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="N2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="O2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="R2" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S2" s="17" t="s">
         <v>19</v>
@@ -14040,11 +13895,8 @@
       <c r="AN2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="46" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="3" spans="1:40" s="46" customFormat="1" ht="15.65" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>27</v>
       </c>
@@ -14064,40 +13916,40 @@
         <v>30</v>
       </c>
       <c r="G3" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="I3" s="65" t="s">
         <v>99</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>100</v>
       </c>
       <c r="J3" s="65" t="s">
         <v>59</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M3" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="N3" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="O3" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="65" t="s">
-        <v>105</v>
-      </c>
       <c r="R3" s="65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S3" s="65" t="s">
         <v>19</v>
@@ -14165,11 +14017,8 @@
       <c r="AN3" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" s="31" customFormat="1" ht="15.65" customHeight="1">
+    </row>
+    <row r="4" spans="1:40" s="31" customFormat="1" ht="15.65" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>36</v>
       </c>
@@ -14185,114 +14034,111 @@
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="I4" s="70" t="s">
         <v>99</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>100</v>
       </c>
       <c r="J4" s="70" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="R4" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO4" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
@@ -14407,11 +14253,8 @@
       <c r="AN5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41">
+    </row>
+    <row r="6" spans="1:40">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -14452,9 +14295,8 @@
       <c r="AL6" s="17"/>
       <c r="AM6" s="17"/>
       <c r="AN6" s="17"/>
-      <c r="AO6" s="51"/>
-    </row>
-    <row r="7" spans="1:41">
+    </row>
+    <row r="7" spans="1:40">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -14495,9 +14337,8 @@
       <c r="AL7" s="17"/>
       <c r="AM7" s="17"/>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="51"/>
-    </row>
-    <row r="8" spans="1:41">
+    </row>
+    <row r="8" spans="1:40">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -14538,9 +14379,8 @@
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="51"/>
-    </row>
-    <row r="9" spans="1:41">
+    </row>
+    <row r="9" spans="1:40">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -14581,9 +14421,8 @@
       <c r="AL9" s="17"/>
       <c r="AM9" s="17"/>
       <c r="AN9" s="17"/>
-      <c r="AO9" s="51"/>
-    </row>
-    <row r="10" spans="1:41">
+    </row>
+    <row r="10" spans="1:40">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -14624,9 +14463,8 @@
       <c r="AL10" s="17"/>
       <c r="AM10" s="17"/>
       <c r="AN10" s="17"/>
-      <c r="AO10" s="51"/>
-    </row>
-    <row r="11" spans="1:41">
+    </row>
+    <row r="11" spans="1:40">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -14667,9 +14505,8 @@
       <c r="AL11" s="17"/>
       <c r="AM11" s="17"/>
       <c r="AN11" s="17"/>
-      <c r="AO11" s="51"/>
-    </row>
-    <row r="12" spans="1:41">
+    </row>
+    <row r="12" spans="1:40">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -14710,9 +14547,8 @@
       <c r="AL12" s="17"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
-      <c r="AO12" s="51"/>
-    </row>
-    <row r="13" spans="1:41">
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -14753,9 +14589,8 @@
       <c r="AL13" s="17"/>
       <c r="AM13" s="17"/>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="51"/>
-    </row>
-    <row r="14" spans="1:41">
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -14796,9 +14631,8 @@
       <c r="AL14" s="17"/>
       <c r="AM14" s="17"/>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="51"/>
-    </row>
-    <row r="15" spans="1:41">
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -14839,9 +14673,8 @@
       <c r="AL15" s="17"/>
       <c r="AM15" s="17"/>
       <c r="AN15" s="17"/>
-      <c r="AO15" s="51"/>
-    </row>
-    <row r="16" spans="1:41">
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -14882,7 +14715,6 @@
       <c r="AL16" s="17"/>
       <c r="AM16" s="17"/>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="51"/>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" s="17"/>
@@ -14936,8 +14768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52296D71-257F-48D6-B061-96C4007B427B}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15012,10 +14844,10 @@
         <v>78</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>67</v>
@@ -15024,31 +14856,31 @@
         <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>71</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M1" s="17" t="s">
         <v>72</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O1" s="17" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>76</v>
@@ -15057,10 +14889,10 @@
         <v>13</v>
       </c>
       <c r="T1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="V1" s="17" t="s">
         <v>81</v>
@@ -15072,7 +14904,7 @@
         <v>80</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>83</v>
@@ -15081,10 +14913,10 @@
         <v>79</v>
       </c>
       <c r="AB1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>123</v>
       </c>
       <c r="AD1" s="8" t="s">
         <v>84</v>
@@ -15096,46 +14928,46 @@
         <v>85</v>
       </c>
       <c r="AG1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH1" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AI1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="AK1" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AL1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="AU1" s="8" t="s">
         <v>54</v>
@@ -15147,31 +14979,31 @@
         <v>96</v>
       </c>
       <c r="AX1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="BA1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BE1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:58">
@@ -15194,37 +15026,37 @@
         <v>59</v>
       </c>
       <c r="G2" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="51" t="s">
+      <c r="L2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="O2" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="51" t="s">
+      <c r="P2" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="P2" s="42" t="s">
+      <c r="Q2" s="42" t="s">
         <v>148</v>
-      </c>
-      <c r="Q2" s="42" t="s">
-        <v>106</v>
       </c>
       <c r="R2" s="51" t="s">
         <v>28</v>
@@ -15549,34 +15381,34 @@
         <v>150</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I4" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="56" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="L4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="O4" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="P4" s="56" t="s">
+      <c r="Q4" s="56" t="s">
         <v>148</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>106</v>
       </c>
       <c r="R4" s="56" t="s">
         <v>28</v>
@@ -15704,7 +15536,7 @@
     </row>
     <row r="5" spans="1:58">
       <c r="A5" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="51">
         <v>1</v>
@@ -16011,10 +15843,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056B68C9-3C17-4B06-80C0-880DDEDA4E17}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16024,15 +15856,14 @@
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16063,11 +15894,8 @@
       <c r="J1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="51" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -16081,28 +15909,25 @@
         <v>19</v>
       </c>
       <c r="E2" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="G2" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>169</v>
-      </c>
       <c r="I2" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="51" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
@@ -16116,25 +15941,22 @@
         <v>28</v>
       </c>
       <c r="E3" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="G3" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="H3" s="49" t="s">
-        <v>169</v>
-      </c>
       <c r="I3" s="49" t="s">
         <v>28</v>
       </c>
       <c r="J3" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -16144,10 +15966,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D515A6D1-7D94-4084-A48A-E45C12FE9CD2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16156,9 +15978,10 @@
     <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="1.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="51" customFormat="1">
+    <row r="1" spans="1:6" s="51" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -16168,11 +15991,13 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="51" customFormat="1">
+      <c r="D1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="51" customFormat="1">
       <c r="A2" s="49" t="s">
         <v>36</v>
       </c>
@@ -16184,6 +16009,12 @@
       </c>
       <c r="D2" s="49" t="s">
         <v>19</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -16221,31 +16052,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>178</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16259,29 +16090,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I2" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="51" t="s">
         <v>181</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1">
@@ -16295,21 +16126,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
       <c r="H3" s="51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="51" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
@@ -16340,31 +16171,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -16378,16 +16209,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5">
         <v>987654321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -16400,7 +16231,7 @@
         <v>59</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -16801,6 +16632,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -16810,7 +16650,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -17027,16 +16867,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{360C765C-5108-4856-B14E-979324B41D25}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17046,7 +16885,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA5B558-DFC3-420B-A09B-072555AB09C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17065,14 +16904,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{527B0702-8AF4-4307-A34D-2633AC2397ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
